--- a/experiments_data.xlsx
+++ b/experiments_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>L_max/Cuckoo</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>NumElems/L_max</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
   </si>
   <si>
     <t>Avg</t>
@@ -170,6 +164,63 @@
   </si>
   <si>
     <t>d/k</t>
+  </si>
+  <si>
+    <t>Moves</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>10^5 repetitions</t>
+  </si>
+  <si>
+    <t>&lt;0.1%</t>
+  </si>
+  <si>
+    <t>&lt;0.2%</t>
+  </si>
+  <si>
+    <t>&lt;0.3%</t>
+  </si>
+  <si>
+    <t>&lt;0.4%</t>
+  </si>
+  <si>
+    <t>&lt;0.5%</t>
+  </si>
+  <si>
+    <t>&lt;0.6%</t>
+  </si>
+  <si>
+    <t>&lt;0.7%</t>
+  </si>
+  <si>
+    <t>&lt;0.9%</t>
+  </si>
+  <si>
+    <t>&gt;=0.9%</t>
+  </si>
+  <si>
+    <t>&lt;0.8%</t>
+  </si>
+  <si>
+    <t>11.56% - 49.77%</t>
+  </si>
+  <si>
+    <t>03.29% - 92.39%</t>
+  </si>
+  <si>
+    <t>00.34% - 97.65%</t>
+  </si>
+  <si>
+    <t>00.20% - 98.00%</t>
+  </si>
+  <si>
+    <t>00.19% - 98.03%</t>
+  </si>
+  <si>
+    <t>00.19% - 98.04%</t>
   </si>
 </sst>
 </file>
@@ -377,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -418,6 +469,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,25 +709,25 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>100%</c:v>
+                <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>200%</c:v>
+                <c:v>2</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>300%</c:v>
+                <c:v>3</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>400%</c:v>
+                <c:v>4</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>500%</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>600%</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>700%</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -750,25 +805,25 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>100.00%</c:v>
+                <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>200.00%</c:v>
+                <c:v>2</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>300.00%</c:v>
+                <c:v>3</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>400.00%</c:v>
+                <c:v>4</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>500.00%</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>600.00%</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>700.00%</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -846,34 +901,34 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>100.00%</c:v>
+                <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>200.00%</c:v>
+                <c:v>2</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>300.00%</c:v>
+                <c:v>3</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>400.00%</c:v>
+                <c:v>4</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>500.00%</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>600.00%</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>700.00%</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>800.00%</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="8">
-                <c:v>900.00%</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="9">
-                <c:v>1000.00%</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -951,34 +1006,34 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>100%</c:v>
+                <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>200%</c:v>
+                <c:v>2</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>300%</c:v>
+                <c:v>3</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>400%</c:v>
+                <c:v>4</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>500%</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>600%</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>700%</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>800%</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="8">
-                <c:v>900%</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="9">
-                <c:v>1000%</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -1140,11 +1195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="15287616"/>
-        <c:axId val="15297408"/>
+        <c:axId val="-1471787632"/>
+        <c:axId val="-1471778928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15287616"/>
+        <c:axId val="-1471787632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15297408"/>
+        <c:crossAx val="-1471778928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15297408"/>
+        <c:axId val="-1471778928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1372,7 +1427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15287616"/>
+        <c:crossAx val="-1471787632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1564,7 +1619,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$51</c:f>
+              <c:f>Sheet1!$K$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1587,7 +1642,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$53:$R$59</c:f>
+              <c:f>Sheet1!$K$53:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1622,7 +1677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$51</c:f>
+              <c:f>Sheet1!$N$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1645,7 +1700,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$53:$U$59</c:f>
+              <c:f>Sheet1!$N$53:$N$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1680,7 +1735,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$51</c:f>
+              <c:f>Sheet1!$O$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1703,7 +1758,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$53:$V$59</c:f>
+              <c:f>Sheet1!$O$53:$O$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1738,7 +1793,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$51</c:f>
+              <c:f>Sheet1!$P$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1761,7 +1816,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$53:$W$59</c:f>
+              <c:f>Sheet1!$P$53:$P$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1796,7 +1851,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$51</c:f>
+              <c:f>Sheet1!$M$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1819,7 +1874,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$53:$T$59</c:f>
+              <c:f>Sheet1!$M$53:$M$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1854,7 +1909,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$51</c:f>
+              <c:f>Sheet1!$L$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1877,7 +1932,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$53:$S$59</c:f>
+              <c:f>Sheet1!$L$53:$L$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1916,11 +1971,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="15287072"/>
-        <c:axId val="15292512"/>
+        <c:axId val="-1471784368"/>
+        <c:axId val="-1471787088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15287072"/>
+        <c:axId val="-1471784368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,7 +2081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15292512"/>
+        <c:crossAx val="-1471787088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2034,7 +2089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15292512"/>
+        <c:axId val="-1471787088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15287072"/>
+        <c:crossAx val="-1471784368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2710,11 +2765,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="15294144"/>
-        <c:axId val="15282176"/>
+        <c:axId val="-1471947248"/>
+        <c:axId val="-1471946160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15294144"/>
+        <c:axId val="-1471947248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,7 +2876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15282176"/>
+        <c:crossAx val="-1471946160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2829,7 +2884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15282176"/>
+        <c:axId val="-1471946160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2949,7 +3004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15294144"/>
+        <c:crossAx val="-1471947248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3503,11 +3558,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="15139040"/>
-        <c:axId val="235152272"/>
+        <c:axId val="-1280096560"/>
+        <c:axId val="-1280098192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15139040"/>
+        <c:axId val="-1280096560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235152272"/>
+        <c:crossAx val="-1280098192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3622,7 +3677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235152272"/>
+        <c:axId val="-1280098192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3734,7 +3789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15139040"/>
+        <c:crossAx val="-1280096560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3787,6 +3842,977 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9025371828521433E-2"/>
+          <c:y val="3.9428962781649465E-2"/>
+          <c:w val="0.87041907261592311"/>
+          <c:h val="0.54519735576891637"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(2,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>&lt;0.1%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;0.2%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&lt;0.3%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;0.4%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&lt;0.5%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&lt;0.6%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&lt;0.7%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&lt;0.8%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>&lt;0.9%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>&gt;=0.9%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(2,4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>&lt;0.1%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;0.2%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&lt;0.3%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;0.4%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&lt;0.5%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&lt;0.6%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&lt;0.7%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&lt;0.8%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>&lt;0.9%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>&gt;=0.9%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$43:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(2,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>&lt;0.1%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;0.2%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&lt;0.3%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;0.4%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&lt;0.5%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&lt;0.6%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&lt;0.7%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&lt;0.8%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>&lt;0.9%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>&gt;=0.9%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$43:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(3,2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>&lt;0.1%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;0.2%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&lt;0.3%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;0.4%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&lt;0.5%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&lt;0.6%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&lt;0.7%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&lt;0.8%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>&lt;0.9%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>&gt;=0.9%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$43:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(3,4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>&lt;0.1%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;0.2%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&lt;0.3%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;0.4%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&lt;0.5%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&lt;0.6%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&lt;0.7%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&lt;0.8%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>&lt;0.9%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>&gt;=0.9%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$43:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(3,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>&lt;0.1%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;0.2%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&lt;0.3%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;0.4%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&lt;0.5%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&lt;0.6%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&lt;0.7%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&lt;0.8%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>&lt;0.9%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>&gt;=0.9%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$43:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1235967728"/>
+        <c:axId val="-1235967184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1235967728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> to avg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.80218044619422579"/>
+              <c:y val="0.52562792638749534"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1235967184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1235967184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Counter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1235967728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3984,6 +5010,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5695,6 +6761,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6083,15 +7652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6165,6 +7734,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6460,47 +8059,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X160"/>
+  <dimension ref="A2:W160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="J31" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6508,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>0.49719999999999998</v>
@@ -6537,7 +8137,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5">
         <v>0.8296</v>
@@ -6566,39 +8166,39 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="H7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="10">
         <v>1</v>
@@ -7046,37 +8646,37 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="H24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>10</v>
@@ -7108,7 +8708,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="10">
         <v>1</v>
@@ -7541,7 +9141,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>9</v>
       </c>
@@ -7570,7 +9170,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>10</v>
       </c>
@@ -7599,7 +9199,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>11</v>
       </c>
@@ -7628,7 +9228,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>12</v>
       </c>
@@ -7657,7 +9257,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>13</v>
       </c>
@@ -7686,7 +9286,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>14</v>
       </c>
@@ -7715,7 +9315,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>15</v>
       </c>
@@ -7744,58 +9344,76 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" t="s">
         <v>14</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" t="s">
+        <v>18</v>
+      </c>
+      <c r="P41" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" t="s">
+        <v>14</v>
+      </c>
+      <c r="T41" t="s">
+        <v>15</v>
+      </c>
+      <c r="U41" t="s">
+        <v>17</v>
+      </c>
+      <c r="V41" t="s">
+        <v>18</v>
+      </c>
+      <c r="W41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C42" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K41" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" t="s">
-        <v>17</v>
-      </c>
-      <c r="N41" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" t="s">
-        <v>15</v>
-      </c>
-      <c r="S41" t="s">
-        <v>16</v>
-      </c>
-      <c r="T41" t="s">
-        <v>17</v>
-      </c>
-      <c r="U41" t="s">
-        <v>19</v>
-      </c>
-      <c r="V41" t="s">
-        <v>20</v>
-      </c>
-      <c r="W41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G42" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="K42" s="22" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M42" s="23" t="s">
+      <c r="M42" s="24" t="s">
         <v>11</v>
       </c>
       <c r="N42" s="24" t="s">
@@ -7808,701 +9426,755 @@
         <v>11</v>
       </c>
       <c r="R42" s="22" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="S42" s="23" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="T42" s="24" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="U42" s="24" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="V42" s="24" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="W42" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="42">
+        <v>7658</v>
+      </c>
+      <c r="D43" s="20">
+        <v>9465</v>
+      </c>
+      <c r="E43" s="20">
+        <v>9861</v>
+      </c>
+      <c r="F43" s="20">
+        <v>8002</v>
+      </c>
+      <c r="G43" s="20">
+        <v>9670</v>
+      </c>
+      <c r="H43" s="34">
+        <v>10000</v>
+      </c>
       <c r="J43" s="25">
         <v>1</v>
       </c>
       <c r="K43" s="19">
-        <v>0.1138</v>
+        <v>0.23150000000000001</v>
       </c>
       <c r="L43" s="2">
-        <v>0.1208</v>
+        <v>0.23130000000000001</v>
       </c>
       <c r="M43" s="2">
-        <v>0.12889999999999999</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="N43" s="2">
-        <v>9.2299999999999993E-2</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0.36399999999999999</v>
+        <v>0.2301</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="P43" s="4">
-        <v>0.35759999999999997</v>
-      </c>
-      <c r="R43" s="19">
-        <v>0.23150000000000001</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0.23130000000000001</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="U43" s="2">
-        <v>0.2301</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.49590000000000001</v>
-      </c>
-      <c r="W43" s="4">
         <v>0.49880000000000002</v>
       </c>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1"/>
+      <c r="R43" s="26">
+        <v>0</v>
+      </c>
+      <c r="S43" s="32">
+        <v>0</v>
+      </c>
+      <c r="T43" s="32">
+        <v>0</v>
+      </c>
+      <c r="U43" s="32">
+        <v>0</v>
+      </c>
+      <c r="V43" s="32">
+        <v>0</v>
+      </c>
+      <c r="W43" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="42">
+        <v>1571</v>
+      </c>
+      <c r="D44" s="20">
+        <v>529</v>
+      </c>
+      <c r="E44" s="20">
+        <v>135</v>
+      </c>
+      <c r="F44" s="20">
+        <v>1105</v>
+      </c>
+      <c r="G44" s="20">
+        <v>279</v>
+      </c>
+      <c r="H44" s="34">
+        <v>0</v>
+      </c>
       <c r="J44" s="25">
         <v>2</v>
       </c>
       <c r="K44" s="19">
-        <v>0.81410000000000005</v>
+        <v>0.95820000000000005</v>
       </c>
       <c r="L44" s="2">
-        <v>0.53239999999999998</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="M44" s="2">
-        <v>0.65159999999999996</v>
+        <v>0.80489999999999995</v>
       </c>
       <c r="N44" s="2">
-        <v>0.92010000000000003</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0.89190000000000003</v>
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="P44" s="4">
-        <v>0.88370000000000004</v>
-      </c>
-      <c r="R44" s="19">
-        <v>0.95820000000000005</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0.71589999999999998</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0.80489999999999995</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0.95540000000000003</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="W44" s="4">
         <v>0.91810000000000003</v>
       </c>
-      <c r="X44" s="1"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q44" s="1"/>
+      <c r="R44" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="S44" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="T44" s="32">
+        <v>0.06</v>
+      </c>
+      <c r="U44" s="32">
+        <v>0.21</v>
+      </c>
+      <c r="V44" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="W44" s="40">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="42">
+        <v>602</v>
+      </c>
+      <c r="D45" s="20">
+        <v>6</v>
+      </c>
+      <c r="E45" s="20">
+        <v>4</v>
+      </c>
+      <c r="F45" s="20">
+        <v>501</v>
+      </c>
+      <c r="G45" s="20">
+        <v>36</v>
+      </c>
+      <c r="H45" s="34">
+        <v>0</v>
+      </c>
       <c r="J45" s="25">
         <v>3</v>
       </c>
       <c r="K45" s="19">
-        <v>0.97809999999999997</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="L45" s="2">
-        <v>0.88829999999999998</v>
+        <v>0.93440000000000001</v>
       </c>
       <c r="M45" s="2">
-        <v>0.93410000000000004</v>
+        <v>0.96240000000000003</v>
       </c>
       <c r="N45" s="2">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0.97270000000000001</v>
+        <v>0.98</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="P45" s="4">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="R45" s="19">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="S45" s="2">
-        <v>0.93440000000000001</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0.96240000000000003</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.97640000000000005</v>
-      </c>
-      <c r="W45" s="4">
         <v>0.97519999999999996</v>
       </c>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1"/>
+      <c r="R45" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="S45" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="T45" s="32">
+        <v>0.54</v>
+      </c>
+      <c r="U45" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="V45" s="32">
+        <v>0.72</v>
+      </c>
+      <c r="W45" s="40">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="42">
+        <v>149</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20">
+        <v>0</v>
+      </c>
+      <c r="F46" s="20">
+        <v>200</v>
+      </c>
+      <c r="G46" s="20">
+        <v>9</v>
+      </c>
+      <c r="H46" s="34">
+        <v>0</v>
+      </c>
       <c r="J46" s="25">
         <v>4</v>
       </c>
       <c r="K46" s="19">
-        <v>0.97829999999999995</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="L46" s="2">
-        <v>0.96860000000000002</v>
+        <v>0.97489999999999999</v>
       </c>
       <c r="M46" s="2">
-        <v>0.97599999999999998</v>
+        <v>0.97870000000000001</v>
       </c>
       <c r="N46" s="2">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="O46" s="2">
-        <v>0.9778</v>
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="P46" s="4">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="R46" s="19">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="S46" s="2">
-        <v>0.97489999999999999</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0.97870000000000001</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="V46" s="2">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="26">
+        <v>1.62</v>
+      </c>
+      <c r="S46" s="32">
         <v>0.98</v>
       </c>
-      <c r="W46" s="4">
-        <v>0.97989999999999999</v>
-      </c>
-      <c r="X46" s="1"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T46" s="32">
+        <v>1.19</v>
+      </c>
+      <c r="U46" s="32">
+        <v>1.57</v>
+      </c>
+      <c r="V46" s="32">
+        <v>1.37</v>
+      </c>
+      <c r="W46" s="40">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="42">
+        <v>19</v>
+      </c>
+      <c r="D47" s="20">
+        <v>0</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0</v>
+      </c>
+      <c r="F47" s="20">
+        <v>104</v>
+      </c>
+      <c r="G47" s="20">
+        <v>3</v>
+      </c>
+      <c r="H47" s="34">
+        <v>0</v>
+      </c>
       <c r="J47" s="25">
         <v>5</v>
       </c>
       <c r="K47" s="19">
-        <v>0.97829999999999995</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="L47" s="2">
-        <v>0.97750000000000004</v>
+        <v>0.97970000000000002</v>
       </c>
       <c r="M47" s="2">
-        <v>0.97829999999999995</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="N47" s="2">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0.97809999999999997</v>
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="P47" s="4">
-        <v>0.97850000000000004</v>
-      </c>
-      <c r="R47" s="19">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0.97970000000000002</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="V47" s="2">
         <v>0.98029999999999995</v>
       </c>
-      <c r="W47" s="4">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="X47" s="1"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q47" s="1"/>
+      <c r="R47" s="26">
+        <v>2.35</v>
+      </c>
+      <c r="S47" s="32">
+        <v>1.73</v>
+      </c>
+      <c r="T47" s="32">
+        <v>1.89</v>
+      </c>
+      <c r="U47" s="32">
+        <v>2.27</v>
+      </c>
+      <c r="V47" s="32">
+        <v>2.06</v>
+      </c>
+      <c r="W47" s="40">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="42">
+        <v>1</v>
+      </c>
+      <c r="D48" s="20">
+        <v>0</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0</v>
+      </c>
+      <c r="F48" s="20">
+        <v>40</v>
+      </c>
+      <c r="G48" s="20">
+        <v>1</v>
+      </c>
+      <c r="H48" s="34">
+        <v>0</v>
+      </c>
       <c r="J48" s="25">
         <v>6</v>
       </c>
       <c r="K48" s="19">
-        <v>0.97829999999999995</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="L48" s="2">
-        <v>0.97840000000000005</v>
+        <v>0.98029999999999995</v>
       </c>
       <c r="M48" s="2">
-        <v>0.97860000000000003</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="N48" s="2">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0.97819999999999996</v>
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="P48" s="4">
-        <v>0.97860000000000003</v>
-      </c>
-      <c r="R48" s="19">
         <v>0.98040000000000005</v>
       </c>
-      <c r="S48" s="2">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="T48" s="2">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="W48" s="4">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="X48" s="1"/>
-    </row>
-    <row r="49" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1"/>
+      <c r="R48" s="26">
+        <v>3.05</v>
+      </c>
+      <c r="S48" s="32">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="T48" s="32">
+        <v>2.58</v>
+      </c>
+      <c r="U48" s="32">
+        <v>2.95</v>
+      </c>
+      <c r="V48" s="32">
+        <v>2.74</v>
+      </c>
+      <c r="W48" s="40">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="42">
+        <v>0</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0</v>
+      </c>
+      <c r="F49" s="20">
+        <v>20</v>
+      </c>
+      <c r="G49" s="20">
+        <v>0</v>
+      </c>
+      <c r="H49" s="34">
+        <v>0</v>
+      </c>
       <c r="J49" s="25">
         <v>7</v>
       </c>
       <c r="K49" s="17">
-        <v>0.97829999999999995</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="L49" s="5">
-        <v>0.97840000000000005</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="M49" s="5">
-        <v>0.97860000000000003</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="N49" s="5">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="O49" s="5">
-        <v>0.97819999999999996</v>
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="P49" s="6">
-        <v>0.97860000000000003</v>
-      </c>
-      <c r="R49" s="17">
         <v>0.98040000000000005</v>
       </c>
-      <c r="S49" s="5">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="T49" s="5">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="U49" s="5">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="V49" s="5">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="W49" s="6">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="X49" s="1"/>
-    </row>
-    <row r="50" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1"/>
+      <c r="R49" s="27">
+        <v>3.76</v>
+      </c>
+      <c r="S49" s="33">
+        <v>3.21</v>
+      </c>
+      <c r="T49" s="33">
+        <v>3.28</v>
+      </c>
+      <c r="U49" s="33">
+        <v>3.64</v>
+      </c>
+      <c r="V49" s="33">
+        <v>3.42</v>
+      </c>
+      <c r="W49" s="41">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="42">
+        <v>0</v>
+      </c>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0</v>
+      </c>
+      <c r="F50" s="20">
+        <v>12</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0</v>
+      </c>
+      <c r="H50" s="34">
+        <v>0</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="P50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="42">
+        <v>0</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0</v>
+      </c>
+      <c r="F51" s="20">
+        <v>5</v>
+      </c>
+      <c r="G51" s="20">
+        <v>1</v>
+      </c>
+      <c r="H51" s="34">
+        <v>0</v>
+      </c>
       <c r="K51" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" t="s">
         <v>15</v>
       </c>
-      <c r="L51" t="s">
+      <c r="N51" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="43">
+        <v>0</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="21">
+        <v>0</v>
+      </c>
+      <c r="F52" s="21">
+        <v>11</v>
+      </c>
+      <c r="G52" s="21">
+        <v>1</v>
+      </c>
+      <c r="H52" s="35">
+        <v>0</v>
+      </c>
+      <c r="K52" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M51" t="s">
-        <v>17</v>
-      </c>
-      <c r="N51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O51" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" t="s">
-        <v>15</v>
-      </c>
-      <c r="S51" t="s">
+      <c r="L52" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T51" t="s">
-        <v>17</v>
-      </c>
-      <c r="U51" t="s">
-        <v>19</v>
-      </c>
-      <c r="V51" t="s">
-        <v>20</v>
-      </c>
-      <c r="W51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="K52" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="23" t="s">
-        <v>12</v>
-      </c>
       <c r="M52" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="O52" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="P52" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="R52" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S52" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="T52" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="U52" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="V52" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W52" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="6:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N52" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J53" s="25">
         <v>1</v>
       </c>
-      <c r="K53" s="19">
-        <v>0.31480000000000002</v>
-      </c>
-      <c r="L53" s="2">
-        <v>0.32550000000000001</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0.39360000000000001</v>
-      </c>
-      <c r="N53" s="2">
-        <v>0.32190000000000002</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0.56359999999999999</v>
-      </c>
-      <c r="P53" s="4">
-        <v>0.58020000000000005</v>
-      </c>
-      <c r="R53" s="26">
+      <c r="K53" s="26">
         <v>0.23</v>
       </c>
-      <c r="S53" s="20">
+      <c r="L53" s="20">
         <v>0.23</v>
       </c>
-      <c r="T53" s="32">
+      <c r="M53" s="32">
         <v>0.28999999999999998</v>
       </c>
-      <c r="U53" s="20">
+      <c r="N53" s="20">
         <v>0.23</v>
       </c>
-      <c r="V53" s="20">
+      <c r="O53" s="20">
         <v>0.5</v>
       </c>
-      <c r="W53" s="34">
+      <c r="P53" s="34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J54" s="25">
         <v>2</v>
       </c>
-      <c r="K54" s="19">
-        <v>0.97050000000000003</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0.78039999999999998</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0.85940000000000005</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0.96479999999999999</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="P54" s="4">
-        <v>0.9335</v>
-      </c>
-      <c r="R54" s="26">
+      <c r="K54" s="26">
         <v>1.28</v>
       </c>
-      <c r="S54" s="20">
+      <c r="L54" s="20">
         <v>0.79</v>
       </c>
-      <c r="T54" s="32">
+      <c r="M54" s="32">
         <v>0.93</v>
       </c>
-      <c r="U54" s="20">
+      <c r="N54" s="20">
         <v>1.3</v>
       </c>
-      <c r="V54" s="20">
+      <c r="O54" s="20">
         <v>1.2</v>
       </c>
-      <c r="W54" s="34">
+      <c r="P54" s="34">
         <v>1.19</v>
       </c>
     </row>
-    <row r="55" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J55" s="25">
         <v>3</v>
       </c>
-      <c r="K55" s="19">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0.9516</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0.96960000000000002</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0.9819</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0.97870000000000001</v>
-      </c>
-      <c r="P55" s="4">
-        <v>0.97809999999999997</v>
-      </c>
-      <c r="R55" s="26">
+      <c r="K55" s="26">
         <v>2.19</v>
       </c>
-      <c r="S55" s="20">
+      <c r="L55" s="20">
         <v>1.43</v>
       </c>
-      <c r="T55" s="32">
+      <c r="M55" s="32">
         <v>1.69</v>
       </c>
-      <c r="U55" s="20">
+      <c r="N55" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="V55" s="20">
+      <c r="O55" s="20">
         <v>1.97</v>
       </c>
-      <c r="W55" s="34">
+      <c r="P55" s="34">
         <v>1.96</v>
       </c>
     </row>
-    <row r="56" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J56" s="25">
         <v>4</v>
       </c>
-      <c r="K56" s="19">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="L56" s="2">
-        <v>0.97840000000000005</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0.98109999999999997</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0.98219999999999996</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0.98180000000000001</v>
-      </c>
-      <c r="P56" s="4">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="R56" s="26">
+      <c r="K56" s="26">
         <v>3.03</v>
       </c>
-      <c r="S56" s="20">
+      <c r="L56" s="20">
         <v>2.23</v>
       </c>
-      <c r="T56" s="32">
+      <c r="M56" s="32">
         <v>2.5</v>
       </c>
-      <c r="U56" s="20">
+      <c r="N56" s="20">
         <v>3.01</v>
       </c>
-      <c r="V56" s="20">
+      <c r="O56" s="20">
         <v>2.79</v>
       </c>
-      <c r="W56" s="34">
+      <c r="P56" s="34">
         <v>2.79</v>
       </c>
     </row>
-    <row r="57" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J57" s="25">
         <v>5</v>
       </c>
-      <c r="K57" s="19">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="L57" s="2">
-        <v>0.98160000000000003</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0.98219999999999996</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="P57" s="4">
-        <v>0.98250000000000004</v>
-      </c>
-      <c r="R57" s="26">
+      <c r="K57" s="26">
         <v>3.89</v>
       </c>
-      <c r="S57" s="20">
+      <c r="L57" s="20">
         <v>3.11</v>
       </c>
-      <c r="T57" s="32">
+      <c r="M57" s="32">
         <v>3.35</v>
       </c>
-      <c r="U57" s="20">
+      <c r="N57" s="20">
         <v>3.88</v>
       </c>
-      <c r="V57" s="20">
+      <c r="O57" s="20">
         <v>3.64</v>
       </c>
-      <c r="W57" s="34">
+      <c r="P57" s="34">
         <v>3.65</v>
       </c>
     </row>
-    <row r="58" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J58" s="25">
         <v>6</v>
       </c>
-      <c r="K58" s="19">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0.98219999999999996</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0.98250000000000004</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0.98219999999999996</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="P58" s="4">
-        <v>0.98250000000000004</v>
-      </c>
-      <c r="R58" s="26">
+      <c r="K58" s="26">
         <v>4.74</v>
       </c>
-      <c r="S58" s="20">
+      <c r="L58" s="20">
         <v>4.01</v>
       </c>
-      <c r="T58" s="32">
+      <c r="M58" s="32">
         <v>4.21</v>
       </c>
-      <c r="U58" s="20">
+      <c r="N58" s="20">
         <v>4.7300000000000004</v>
       </c>
-      <c r="V58" s="20">
+      <c r="O58" s="20">
         <v>4.5</v>
       </c>
-      <c r="W58" s="34">
+      <c r="P58" s="34">
         <v>4.5</v>
       </c>
     </row>
-    <row r="59" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J59" s="25">
         <v>7</v>
       </c>
-      <c r="K59" s="17">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="L59" s="5">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="M59" s="5">
-        <v>0.98260000000000003</v>
-      </c>
-      <c r="N59" s="5">
-        <v>0.98219999999999996</v>
-      </c>
-      <c r="O59" s="5">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="P59" s="6">
-        <v>0.98250000000000004</v>
-      </c>
-      <c r="R59" s="27">
+      <c r="K59" s="27">
         <v>5.6</v>
       </c>
-      <c r="S59" s="21">
+      <c r="L59" s="21">
         <v>4.8600000000000003</v>
       </c>
-      <c r="T59" s="33">
+      <c r="M59" s="33">
         <v>5.0599999999999996</v>
       </c>
-      <c r="U59" s="21">
+      <c r="N59" s="21">
         <v>5.59</v>
       </c>
-      <c r="V59" s="21">
+      <c r="O59" s="21">
         <v>5.35</v>
       </c>
-      <c r="W59" s="35">
+      <c r="P59" s="35">
         <v>5.36</v>
       </c>
     </row>
-    <row r="62" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="37"/>
       <c r="H62" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="6:24" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G63" s="39">
         <v>0</v>
@@ -8514,7 +10186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G64" s="39">
         <v>1</v>
       </c>

--- a/experiments_data.xlsx
+++ b/experiments_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>L_max/Cuckoo</t>
   </si>
@@ -222,6 +222,15 @@
   <si>
     <t>00.19% - 98.04%</t>
   </si>
+  <si>
+    <t>moves</t>
+  </si>
+  <si>
+    <t>Table use</t>
+  </si>
+  <si>
+    <t>LL_Global</t>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -473,6 +488,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,25 +629,25 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>100.00%</c:v>
+                <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>200.00%</c:v>
+                <c:v>2</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>300.00%</c:v>
+                <c:v>3</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>400.00%</c:v>
+                <c:v>4</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>500.00%</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>600.00%</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>700.00%</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -1111,34 +1127,34 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>100.000%</c:v>
+                <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>200.000%</c:v>
+                <c:v>2</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>300.000%</c:v>
+                <c:v>3</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>400.000%</c:v>
+                <c:v>4</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>500.000%</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>600.000%</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>700.000%</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>800.000%</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="8">
-                <c:v>900.000%</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="9">
-                <c:v>1000.000%</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -1195,11 +1211,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1471787632"/>
-        <c:axId val="-1471778928"/>
+        <c:axId val="-1511730224"/>
+        <c:axId val="-1511729680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1471787632"/>
+        <c:axId val="-1511730224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1471778928"/>
+        <c:crossAx val="-1511729680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1314,7 +1330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1471778928"/>
+        <c:axId val="-1511729680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1366,7 +1382,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1427,7 +1442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1471787632"/>
+        <c:crossAx val="-1511730224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1531,74 +1546,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Work</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> done</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.4184444444444444"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1971,11 +1919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1471784368"/>
-        <c:axId val="-1471787088"/>
+        <c:axId val="-1511717712"/>
+        <c:axId val="-1511726416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1471784368"/>
+        <c:axId val="-1511717712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1471787088"/>
+        <c:crossAx val="-1511726416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2089,7 +2037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1471787088"/>
+        <c:axId val="-1511726416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1471784368"/>
+        <c:crossAx val="-1511717712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2765,11 +2713,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1471947248"/>
-        <c:axId val="-1471946160"/>
+        <c:axId val="-1511723152"/>
+        <c:axId val="-1511717168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1471947248"/>
+        <c:axId val="-1511723152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,7 +2824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1471946160"/>
+        <c:crossAx val="-1511717168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2884,7 +2832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1471946160"/>
+        <c:axId val="-1511717168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3004,7 +2952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1471947248"/>
+        <c:crossAx val="-1511723152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3558,11 +3506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1280096560"/>
-        <c:axId val="-1280098192"/>
+        <c:axId val="-1511728592"/>
+        <c:axId val="-1511900960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1280096560"/>
+        <c:axId val="-1511728592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,7 +3616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1280098192"/>
+        <c:crossAx val="-1511900960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3677,7 +3625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1280098192"/>
+        <c:axId val="-1511900960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3789,7 +3737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1280096560"/>
+        <c:crossAx val="-1511728592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4532,11 +4480,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1235967728"/>
-        <c:axId val="-1235967184"/>
+        <c:axId val="-1332944416"/>
+        <c:axId val="-1332947680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1235967728"/>
+        <c:axId val="-1332944416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4646,7 +4594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1235967184"/>
+        <c:crossAx val="-1332947680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4654,7 +4602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1235967184"/>
+        <c:axId val="-1332947680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -4762,7 +4710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1235967728"/>
+        <c:crossAx val="-1332944416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4813,6 +4761,1364 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5914260717410313E-2"/>
+          <c:y val="4.2083333333333355E-2"/>
+          <c:w val="0.87353018372703417"/>
+          <c:h val="0.8736654272382619"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LL_Global</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$43:$Z$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>91.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.98</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>98.02</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>98.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LL_LL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$43:$AC$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>90.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.9</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>97.96</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>98.01</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>98.02</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LL_Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$43:$AD$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>90.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.61</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>97.84</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>97.9</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>97.94</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>97.97</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>97.99</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>98.01</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>98.02</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>98.02</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LL_Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$43:$AE$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>89.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>97.67</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>97.79</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>97.86</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>97.92</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>97.95</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>97.98</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>97.99</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>98.01</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>98.02</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>98.02</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>97.93</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>97.93</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>97.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random_Global</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$43:$AB$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>85.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.18</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>97.45</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>97.63</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>97.84</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>97.9</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>97.94</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>97.96</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>97.99</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>98.01</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>98.02</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>98.02</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>98.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Global</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$43:$AA$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.71</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>97.08</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>97.34</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>97.52</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>97.65</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>97.87</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>97.91</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>97.94</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>97.97</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>97.98</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>98.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1332940064"/>
+        <c:axId val="-1332950400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1332940064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Moves/item</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.83801946631671054"/>
+              <c:y val="0.8416433362496355"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1332950400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1332950400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="98"/>
+          <c:min val="82"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Table</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> use (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1332940064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.49445056867891524"/>
+          <c:y val="0.38773038786818315"/>
+          <c:w val="0.46943219597550306"/>
+          <c:h val="0.30208442694663173"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5050,6 +6356,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7264,6 +8610,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7764,6 +9626,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8059,10 +9951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W160"/>
+  <dimension ref="A2:AE160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J31" workbookViewId="0">
-      <selection activeCell="Z47" sqref="Z47"/>
+    <sheetView tabSelected="1" topLeftCell="M52" workbookViewId="0">
+      <selection activeCell="AG45" sqref="AG45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9141,7 +11033,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>9</v>
       </c>
@@ -9170,7 +11062,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>10</v>
       </c>
@@ -9199,7 +11091,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>11</v>
       </c>
@@ -9228,7 +11120,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>12</v>
       </c>
@@ -9257,7 +11149,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>13</v>
       </c>
@@ -9286,7 +11178,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>14</v>
       </c>
@@ -9315,7 +11207,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>15</v>
       </c>
@@ -9344,7 +11236,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
         <v>12</v>
       </c>
@@ -9387,8 +11279,29 @@
       <c r="W41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C42" s="22" t="s">
         <v>20</v>
       </c>
@@ -9443,8 +11356,29 @@
       <c r="W42" s="24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y42" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z42" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA42" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB42" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC42" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD42" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE42" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -9509,8 +11443,29 @@
       <c r="W43" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y43" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Z43" s="26">
+        <v>91.75</v>
+      </c>
+      <c r="AA43" s="32">
+        <v>83.3</v>
+      </c>
+      <c r="AB43" s="32">
+        <v>85.67</v>
+      </c>
+      <c r="AC43" s="32">
+        <v>90.16</v>
+      </c>
+      <c r="AD43" s="32">
+        <v>90.18</v>
+      </c>
+      <c r="AE43" s="40">
+        <v>89.61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -9575,8 +11530,29 @@
       <c r="W44" s="40">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y44" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Z44" s="26">
+        <v>96.15</v>
+      </c>
+      <c r="AA44" s="32">
+        <v>89.44</v>
+      </c>
+      <c r="AB44" s="32">
+        <v>90.91</v>
+      </c>
+      <c r="AC44" s="32">
+        <v>95.29</v>
+      </c>
+      <c r="AD44" s="32">
+        <v>93.81</v>
+      </c>
+      <c r="AE44" s="40">
+        <v>93.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B45" s="25" t="s">
         <v>55</v>
       </c>
@@ -9638,8 +11614,29 @@
       <c r="W45" s="40">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y45" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="Z45" s="26">
+        <v>97.32</v>
+      </c>
+      <c r="AA45" s="32">
+        <v>92.49</v>
+      </c>
+      <c r="AB45" s="32">
+        <v>93.56</v>
+      </c>
+      <c r="AC45" s="32">
+        <v>96.85</v>
+      </c>
+      <c r="AD45" s="32">
+        <v>95.54</v>
+      </c>
+      <c r="AE45" s="40">
+        <v>95.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B46" s="25" t="s">
         <v>56</v>
       </c>
@@ -9701,8 +11698,29 @@
       <c r="W46" s="40">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y46" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="Z46" s="26">
+        <v>97.72</v>
+      </c>
+      <c r="AA46" s="32">
+        <v>94.29</v>
+      </c>
+      <c r="AB46" s="32">
+        <v>95.14</v>
+      </c>
+      <c r="AC46" s="32">
+        <v>97.43</v>
+      </c>
+      <c r="AD46" s="32">
+        <v>96.5</v>
+      </c>
+      <c r="AE46" s="40">
+        <v>96.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
         <v>57</v>
       </c>
@@ -9764,8 +11782,29 @@
       <c r="W47" s="40">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y47" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Z47" s="26">
+        <v>97.87</v>
+      </c>
+      <c r="AA47" s="32">
+        <v>95.43</v>
+      </c>
+      <c r="AB47" s="32">
+        <v>96.13</v>
+      </c>
+      <c r="AC47" s="32">
+        <v>97.68</v>
+      </c>
+      <c r="AD47" s="32">
+        <v>97.06</v>
+      </c>
+      <c r="AE47" s="40">
+        <v>96.83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>58</v>
       </c>
@@ -9827,8 +11866,29 @@
       <c r="W48" s="40">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y48" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="Z48" s="26">
+        <v>97.94</v>
+      </c>
+      <c r="AA48" s="32">
+        <v>96.19</v>
+      </c>
+      <c r="AB48" s="32">
+        <v>96.76</v>
+      </c>
+      <c r="AC48" s="32">
+        <v>97.82</v>
+      </c>
+      <c r="AD48" s="32">
+        <v>97.4</v>
+      </c>
+      <c r="AE48" s="40">
+        <v>97.24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
         <v>59</v>
       </c>
@@ -9890,8 +11950,29 @@
       <c r="W49" s="41">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y49" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="Z49" s="32">
+        <v>97.98</v>
+      </c>
+      <c r="AA49" s="32">
+        <v>96.71</v>
+      </c>
+      <c r="AB49" s="32">
+        <v>97.18</v>
+      </c>
+      <c r="AC49" s="32">
+        <v>97.9</v>
+      </c>
+      <c r="AD49" s="32">
+        <v>97.61</v>
+      </c>
+      <c r="AE49" s="40">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" s="25" t="s">
         <v>62</v>
       </c>
@@ -9916,8 +11997,29 @@
       <c r="M50" s="1"/>
       <c r="P50" s="1"/>
       <c r="T50" s="1"/>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y50" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="Z50" s="20">
+        <v>98</v>
+      </c>
+      <c r="AA50" s="20">
+        <v>97.08</v>
+      </c>
+      <c r="AB50" s="20">
+        <v>97.45</v>
+      </c>
+      <c r="AC50" s="20">
+        <v>97.96</v>
+      </c>
+      <c r="AD50" s="20">
+        <v>97.75</v>
+      </c>
+      <c r="AE50" s="34">
+        <v>97.67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
         <v>60</v>
       </c>
@@ -9957,8 +12059,29 @@
       <c r="P51" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y51" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="Z51" s="20">
+        <v>98.02</v>
+      </c>
+      <c r="AA51" s="20">
+        <v>97.34</v>
+      </c>
+      <c r="AB51" s="20">
+        <v>97.63</v>
+      </c>
+      <c r="AC51" s="20">
+        <v>98</v>
+      </c>
+      <c r="AD51" s="20">
+        <v>97.84</v>
+      </c>
+      <c r="AE51" s="34">
+        <v>97.79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
         <v>61</v>
       </c>
@@ -9998,8 +12121,29 @@
       <c r="P52" s="36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y52" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AA52" s="20">
+        <v>97.52</v>
+      </c>
+      <c r="AB52" s="20">
+        <v>97.75</v>
+      </c>
+      <c r="AC52" s="20">
+        <v>98.01</v>
+      </c>
+      <c r="AD52" s="20">
+        <v>97.9</v>
+      </c>
+      <c r="AE52" s="34">
+        <v>97.86</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J53" s="25">
         <v>1</v>
       </c>
@@ -10021,8 +12165,29 @@
       <c r="P53" s="34">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y53" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z53" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AA53" s="20">
+        <v>97.65</v>
+      </c>
+      <c r="AB53" s="20">
+        <v>97.84</v>
+      </c>
+      <c r="AC53" s="20">
+        <v>98.02</v>
+      </c>
+      <c r="AD53" s="20">
+        <v>97.94</v>
+      </c>
+      <c r="AE53" s="34">
+        <v>97.92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J54" s="25">
         <v>2</v>
       </c>
@@ -10044,8 +12209,29 @@
       <c r="P54" s="34">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y54" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="Z54" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AA54" s="20">
+        <v>97.75</v>
+      </c>
+      <c r="AB54" s="20">
+        <v>97.9</v>
+      </c>
+      <c r="AC54" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AD54" s="20">
+        <v>97.97</v>
+      </c>
+      <c r="AE54" s="34">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J55" s="25">
         <v>3</v>
       </c>
@@ -10067,8 +12253,29 @@
       <c r="P55" s="34">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y55" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="Z55" s="20">
+        <v>98.04</v>
+      </c>
+      <c r="AA55" s="20">
+        <v>97.82</v>
+      </c>
+      <c r="AB55" s="20">
+        <v>97.94</v>
+      </c>
+      <c r="AC55" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AD55" s="20">
+        <v>97.99</v>
+      </c>
+      <c r="AE55" s="34">
+        <v>97.98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J56" s="25">
         <v>4</v>
       </c>
@@ -10090,8 +12297,29 @@
       <c r="P56" s="34">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y56" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="Z56" s="20">
+        <v>98.04</v>
+      </c>
+      <c r="AA56" s="20">
+        <v>97.87</v>
+      </c>
+      <c r="AB56" s="20">
+        <v>97.96</v>
+      </c>
+      <c r="AC56" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AD56" s="20">
+        <v>98</v>
+      </c>
+      <c r="AE56" s="34">
+        <v>97.99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J57" s="25">
         <v>5</v>
       </c>
@@ -10113,8 +12341,29 @@
       <c r="P57" s="34">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y57" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="Z57" s="20">
+        <v>98.04</v>
+      </c>
+      <c r="AA57" s="20">
+        <v>97.91</v>
+      </c>
+      <c r="AB57" s="20">
+        <v>97.99</v>
+      </c>
+      <c r="AC57" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AD57" s="20">
+        <v>98.01</v>
+      </c>
+      <c r="AE57" s="34">
+        <v>98.01</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J58" s="25">
         <v>6</v>
       </c>
@@ -10136,8 +12385,29 @@
       <c r="P58" s="34">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y58" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="Z58" s="20">
+        <v>98.04</v>
+      </c>
+      <c r="AA58" s="20">
+        <v>97.94</v>
+      </c>
+      <c r="AB58" s="20">
+        <v>98</v>
+      </c>
+      <c r="AC58" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AD58" s="20">
+        <v>98.02</v>
+      </c>
+      <c r="AE58" s="34">
+        <v>98.02</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="J59" s="25">
         <v>7</v>
       </c>
@@ -10159,8 +12429,75 @@
       <c r="P59" s="35">
         <v>5.36</v>
       </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y59" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="Z59" s="20">
+        <v>98.04</v>
+      </c>
+      <c r="AA59" s="20">
+        <v>97.97</v>
+      </c>
+      <c r="AB59" s="20">
+        <v>98.01</v>
+      </c>
+      <c r="AC59" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AD59" s="20">
+        <v>98.02</v>
+      </c>
+      <c r="AE59" s="34">
+        <v>98.02</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="Y60" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="Z60" s="20">
+        <v>98.04</v>
+      </c>
+      <c r="AA60" s="20">
+        <v>97.98</v>
+      </c>
+      <c r="AB60" s="20">
+        <v>98.02</v>
+      </c>
+      <c r="AC60" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AD60" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AE60" s="34">
+        <v>97.93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="Y61" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="Z61" s="20">
+        <v>98.04</v>
+      </c>
+      <c r="AA61" s="20">
+        <v>98</v>
+      </c>
+      <c r="AB61" s="20">
+        <v>98.02</v>
+      </c>
+      <c r="AC61" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AD61" s="20">
+        <v>98.03</v>
+      </c>
+      <c r="AE61" s="34">
+        <v>97.93</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>4</v>
       </c>
@@ -10171,8 +12508,29 @@
       <c r="I62" s="24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y62" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z62" s="21">
+        <v>98.04</v>
+      </c>
+      <c r="AA62" s="21">
+        <v>98.01</v>
+      </c>
+      <c r="AB62" s="21">
+        <v>98.03</v>
+      </c>
+      <c r="AC62" s="21">
+        <v>98.03</v>
+      </c>
+      <c r="AD62" s="21">
+        <v>98.03</v>
+      </c>
+      <c r="AE62" s="34">
+        <v>97.93</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>21</v>
       </c>
@@ -10185,8 +12543,11 @@
       <c r="I63" s="34">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G64" s="39">
         <v>1</v>
       </c>

--- a/experiments_data.xlsx
+++ b/experiments_data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blocked" sheetId="1" r:id="rId1"/>
+    <sheet name="CBG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="126">
   <si>
     <t>L_max/Cuckoo</t>
   </si>
@@ -231,6 +232,168 @@
   <si>
     <t>LL_Global</t>
   </si>
+  <si>
+    <t>l_max/l</t>
+  </si>
+  <si>
+    <t>10.56% - 13.61%</t>
+  </si>
+  <si>
+    <t>16.79% - 50.26%</t>
+  </si>
+  <si>
+    <t>15.97% - 78.19%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.41% - 91.09%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.67% - 95.94%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.78% - 97.35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.32% - 97.83%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19% - 98.02%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.21% - 98.10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19% - 98.14%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.21% - 98.17%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19% - 98.18%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18% - 98.19%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19% - 98.19%</t>
+  </si>
+  <si>
+    <t>17.13% - 27.42%</t>
+  </si>
+  <si>
+    <t>19.72% - 73.38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.41% - 96.80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.64% - 99.64%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06% - 99.82%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06% - 99.85%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05% - 99.86%</t>
+  </si>
+  <si>
+    <t>9.945% - 95.679159%</t>
+  </si>
+  <si>
+    <t>0.031% - 99.998637%</t>
+  </si>
+  <si>
+    <t>0.003% - 99.999748%</t>
+  </si>
+  <si>
+    <t>0.003% - 99.999755%</t>
+  </si>
+  <si>
+    <t>0.003% - 99.999759%</t>
+  </si>
+  <si>
+    <t>0.003% - 99.999762%</t>
+  </si>
+  <si>
+    <t>0.003% - 99.999763%</t>
+  </si>
+  <si>
+    <t>0.003% - 99.999764%</t>
+  </si>
+  <si>
+    <t>0.003% - 99.999765%</t>
+  </si>
+  <si>
+    <t>0.003% - 99.999766%</t>
+  </si>
+  <si>
+    <t>0.003% - 99.999767%</t>
+  </si>
+  <si>
+    <t>0.003% - 99.999768%</t>
+  </si>
+  <si>
+    <t>17.323% - 55.783383%</t>
+  </si>
+  <si>
+    <t>27.098% - 48.7163%</t>
+  </si>
+  <si>
+    <t>10.777% - 90.3871%</t>
+  </si>
+  <si>
+    <t>0.130% - 99.9834%</t>
+  </si>
+  <si>
+    <t>0.010% - 99.9988%</t>
+  </si>
+  <si>
+    <t>0.007% - 99.9990%</t>
+  </si>
+  <si>
+    <t>0.007% - 99.9991%</t>
+  </si>
+  <si>
+    <t>17.316% - 39.6343%</t>
+  </si>
+  <si>
+    <t>13.172% - 84.0151%</t>
+  </si>
+  <si>
+    <t>1.240% - 99.7425%</t>
+  </si>
+  <si>
+    <t>0.022% - 99.9834%</t>
+  </si>
+  <si>
+    <t>0.015% - 99.9885%</t>
+  </si>
+  <si>
+    <t>0.014% - 99.9893%</t>
+  </si>
+  <si>
+    <t>0.015% - 99.9896%</t>
+  </si>
+  <si>
+    <t>0.015% - 99.9897%</t>
+  </si>
+  <si>
+    <t>0.015% - 99.9898%</t>
+  </si>
+  <si>
+    <t>0.015% - 99.9899%</t>
+  </si>
+  <si>
+    <t>Table use/l</t>
+  </si>
+  <si>
+    <t>Insertion Time</t>
+  </si>
+  <si>
+    <t>B(2,4)</t>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -489,6 +652,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +770,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$7</c:f>
+              <c:f>Blocked!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -661,11 +827,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$8:$D$17</c15:sqref>
+                    <c15:sqref>Blocked!$D$8:$D$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$8:$D$14</c:f>
+              <c:f>Blocked!$D$8:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -700,7 +866,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$7</c:f>
+              <c:f>Blocked!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -757,11 +923,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$F$8:$F$17</c15:sqref>
+                    <c15:sqref>Blocked!$F$8:$F$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$F$8:$F$14</c:f>
+              <c:f>Blocked!$F$8:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -796,7 +962,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$7</c:f>
+              <c:f>Blocked!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -853,11 +1019,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$J$8:$J$17</c15:sqref>
+                    <c15:sqref>Blocked!$J$8:$J$17</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$J$8:$J$14</c:f>
+              <c:f>Blocked!$J$8:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -892,7 +1058,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$24</c:f>
+              <c:f>Blocked!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -958,11 +1124,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$25:$D$31</c15:sqref>
+                    <c15:sqref>Blocked!$D$25:$D$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$25:$D$31</c:f>
+              <c:f>Blocked!$D$25:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -997,7 +1163,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$24</c:f>
+              <c:f>Blocked!$F$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1063,11 +1229,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$F$25:$F$31</c15:sqref>
+                    <c15:sqref>Blocked!$F$25:$F$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$F$25:$F$31</c:f>
+              <c:f>Blocked!$F$25:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1102,7 +1268,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$24</c:f>
+              <c:f>Blocked!$J$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1168,11 +1334,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$J$25:$J$31</c15:sqref>
+                    <c15:sqref>Blocked!$J$25:$J$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$J$25:$J$31</c:f>
+              <c:f>Blocked!$J$25:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1211,11 +1377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511730224"/>
-        <c:axId val="-1511729680"/>
+        <c:axId val="-1351246384"/>
+        <c:axId val="-1351237136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511730224"/>
+        <c:axId val="-1351246384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511729680"/>
+        <c:crossAx val="-1351237136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1330,7 +1496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1511729680"/>
+        <c:axId val="-1351237136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1442,7 +1608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511730224"/>
+        <c:crossAx val="-1351246384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1567,7 +1733,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$51</c:f>
+              <c:f>Blocked!$K$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1590,7 +1756,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$53:$K$59</c:f>
+              <c:f>Blocked!$K$53:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1625,7 +1791,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$51</c:f>
+              <c:f>Blocked!$N$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1648,7 +1814,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$53:$N$59</c:f>
+              <c:f>Blocked!$N$53:$N$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1683,7 +1849,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$51</c:f>
+              <c:f>Blocked!$O$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1706,7 +1872,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$53:$O$59</c:f>
+              <c:f>Blocked!$O$53:$O$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1741,7 +1907,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$51</c:f>
+              <c:f>Blocked!$P$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1764,7 +1930,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$53:$P$59</c:f>
+              <c:f>Blocked!$P$53:$P$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1799,7 +1965,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$51</c:f>
+              <c:f>Blocked!$M$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1822,7 +1988,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$53:$M$59</c:f>
+              <c:f>Blocked!$M$53:$M$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1857,7 +2023,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$51</c:f>
+              <c:f>Blocked!$L$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1880,7 +2046,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$53:$L$59</c:f>
+              <c:f>Blocked!$L$53:$L$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1919,11 +2085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511717712"/>
-        <c:axId val="-1511726416"/>
+        <c:axId val="-1351243664"/>
+        <c:axId val="-1351236592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511717712"/>
+        <c:axId val="-1351243664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,7 +2195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511726416"/>
+        <c:crossAx val="-1351236592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2037,7 +2203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1511726416"/>
+        <c:axId val="-1351236592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511717712"/>
+        <c:crossAx val="-1351243664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2337,7 +2503,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$25</c:f>
+              <c:f>Blocked!$M$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2360,7 +2526,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$24:$U$24</c:f>
+              <c:f>Blocked!$N$24:$U$24</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2392,7 +2558,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$25:$U$25</c:f>
+              <c:f>Blocked!$N$25:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2430,7 +2596,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$26</c:f>
+              <c:f>Blocked!$M$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2453,7 +2619,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$24:$U$24</c:f>
+              <c:f>Blocked!$N$24:$U$24</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2485,7 +2651,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$26:$U$26</c:f>
+              <c:f>Blocked!$N$26:$U$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2523,7 +2689,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$27</c:f>
+              <c:f>Blocked!$M$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2546,7 +2712,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$24:$U$24</c:f>
+              <c:f>Blocked!$N$24:$U$24</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2578,7 +2744,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$27:$U$27</c:f>
+              <c:f>Blocked!$N$27:$U$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2616,7 +2782,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$28</c:f>
+              <c:f>Blocked!$M$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2639,7 +2805,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$24:$U$24</c:f>
+              <c:f>Blocked!$N$24:$U$24</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2671,7 +2837,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$28:$U$28</c:f>
+              <c:f>Blocked!$N$28:$U$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2713,11 +2879,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511723152"/>
-        <c:axId val="-1511717168"/>
+        <c:axId val="-1351409584"/>
+        <c:axId val="-1351409040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511723152"/>
+        <c:axId val="-1351409584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +2990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511717168"/>
+        <c:crossAx val="-1351409040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2832,7 +2998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1511717168"/>
+        <c:axId val="-1351409040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2952,7 +3118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511723152"/>
+        <c:crossAx val="-1351409584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3077,7 +3243,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$62</c:f>
+              <c:f>Blocked!$H$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3100,7 +3266,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$133:$G$160</c:f>
+              <c:f>Blocked!$G$133:$G$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3193,7 +3359,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$133:$H$160</c:f>
+              <c:f>Blocked!$H$133:$H$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3288,7 +3454,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$62</c:f>
+              <c:f>Blocked!$I$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3311,7 +3477,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$133:$G$160</c:f>
+              <c:f>Blocked!$G$133:$G$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3404,7 +3570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$133:$I$160</c:f>
+              <c:f>Blocked!$I$133:$I$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3506,11 +3672,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511728592"/>
-        <c:axId val="-1511900960"/>
+        <c:axId val="-1174099392"/>
+        <c:axId val="-1174100480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511728592"/>
+        <c:axId val="-1174099392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +3782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511900960"/>
+        <c:crossAx val="-1174100480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3625,7 +3791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1511900960"/>
+        <c:axId val="-1174100480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3737,7 +3903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511728592"/>
+        <c:crossAx val="-1174099392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3863,7 +4029,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$42</c:f>
+              <c:f>Blocked!$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3884,7 +4050,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:f>Blocked!$B$43:$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3922,7 +4088,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$43:$C$52</c:f>
+              <c:f>Blocked!$C$43:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3965,7 +4131,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$42</c:f>
+              <c:f>Blocked!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3986,7 +4152,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:f>Blocked!$B$43:$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4024,7 +4190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$43:$D$52</c:f>
+              <c:f>Blocked!$D$43:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4067,7 +4233,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$42</c:f>
+              <c:f>Blocked!$E$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4088,7 +4254,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:f>Blocked!$B$43:$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4126,7 +4292,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$43:$E$52</c:f>
+              <c:f>Blocked!$E$43:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4169,7 +4335,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$42</c:f>
+              <c:f>Blocked!$F$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4190,7 +4356,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:f>Blocked!$B$43:$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4228,7 +4394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$43:$F$52</c:f>
+              <c:f>Blocked!$F$43:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4271,7 +4437,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$42</c:f>
+              <c:f>Blocked!$G$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4292,7 +4458,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:f>Blocked!$B$43:$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4330,7 +4496,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$43:$G$52</c:f>
+              <c:f>Blocked!$G$43:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4373,7 +4539,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$42</c:f>
+              <c:f>Blocked!$H$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4394,7 +4560,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:f>Blocked!$B$43:$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4432,7 +4598,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$43:$H$52</c:f>
+              <c:f>Blocked!$H$43:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4480,11 +4646,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1332944416"/>
-        <c:axId val="-1332947680"/>
+        <c:axId val="-1174103744"/>
+        <c:axId val="-1174103200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1332944416"/>
+        <c:axId val="-1174103744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4594,7 +4760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1332947680"/>
+        <c:crossAx val="-1174103200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4602,7 +4768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1332947680"/>
+        <c:axId val="-1174103200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -4710,7 +4876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1332944416"/>
+        <c:crossAx val="-1174103744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4833,7 +4999,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$41</c:f>
+              <c:f>Blocked!$Z$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4856,7 +5022,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:f>Blocked!$Y$43:$Y$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4925,7 +5091,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$43:$Z$62</c:f>
+              <c:f>Blocked!$Z$43:$Z$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4999,7 +5165,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$41</c:f>
+              <c:f>Blocked!$AC$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5022,7 +5188,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:f>Blocked!$Y$43:$Y$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5091,7 +5257,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$43:$AC$62</c:f>
+              <c:f>Blocked!$AC$43:$AC$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5165,7 +5331,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AD$41</c:f>
+              <c:f>Blocked!$AD$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5188,7 +5354,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:f>Blocked!$Y$43:$Y$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5257,7 +5423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AD$43:$AD$62</c:f>
+              <c:f>Blocked!$AD$43:$AD$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5331,7 +5497,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AE$41</c:f>
+              <c:f>Blocked!$AE$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5354,7 +5520,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:f>Blocked!$Y$43:$Y$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5423,7 +5589,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AE$43:$AE$62</c:f>
+              <c:f>Blocked!$AE$43:$AE$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5497,7 +5663,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$41</c:f>
+              <c:f>Blocked!$AB$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5520,7 +5686,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:f>Blocked!$Y$43:$Y$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5589,7 +5755,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$43:$AB$62</c:f>
+              <c:f>Blocked!$AB$43:$AB$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5663,7 +5829,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$41</c:f>
+              <c:f>Blocked!$AA$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5686,7 +5852,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Y$43:$Y$62</c:f>
+              <c:f>Blocked!$Y$43:$Y$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5755,7 +5921,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$43:$AA$62</c:f>
+              <c:f>Blocked!$AA$43:$AA$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5833,11 +5999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1332940064"/>
-        <c:axId val="-1332950400"/>
+        <c:axId val="-1174102112"/>
+        <c:axId val="-1174104288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1332940064"/>
+        <c:axId val="-1174102112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5944,7 +6110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1332950400"/>
+        <c:crossAx val="-1174104288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5952,7 +6118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1332950400"/>
+        <c:axId val="-1174104288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -6066,7 +6232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1332940064"/>
+        <c:crossAx val="-1174102112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6088,6 +6254,1663 @@
           <c:y val="0.38773038786818315"/>
           <c:w val="0.46943219597550306"/>
           <c:h val="0.30208442694663173"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12928211842372161"/>
+          <c:y val="5.5972222222222236E-2"/>
+          <c:w val="0.72689151560972909"/>
+          <c:h val="0.85014617964421113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CBG!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CBG!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CBG!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CBG!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CBG!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1130749632"/>
+        <c:axId val="-1130758880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1130749632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Table</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> use</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.86639129483814536"/>
+              <c:y val="0.86536964129483818"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1130758880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1130758880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Primary</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> elemenents</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="0.31680920093321668"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1130749632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86755555555555541"/>
+          <c:y val="0.18576334208223974"/>
+          <c:w val="0.13155555555555556"/>
+          <c:h val="0.38368110236220471"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5211596783617583E-2"/>
+          <c:y val="3.4469159596762049E-2"/>
+          <c:w val="0.87233261919998517"/>
+          <c:h val="0.89949586566418827"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CBG!$B$46:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$C$46:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2530</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CBG!$B$46:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$D$46:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CBG!$B$46:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$E$46:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CBG!$B$46:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$F$46:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1130748544"/>
+        <c:axId val="-1130761056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1130748544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Table</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Load</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.89436471187370237"/>
+              <c:y val="0.87088120865910934"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1130761056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1130761056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Insertion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time per elem</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.31310917557583434"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1130748544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30514984134445883"/>
+          <c:y val="0.21386576683096103"/>
+          <c:w val="0.15686433971872918"/>
+          <c:h val="0.20015702383090775"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6396,6 +8219,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8964,6 +10867,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9656,6 +12591,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9953,8 +12953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M52" workbookViewId="0">
-      <selection activeCell="AG45" sqref="AG45"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="I154" sqref="I154:I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13617,4 +16617,1068 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="45">
+        <v>2</v>
+      </c>
+      <c r="D2" s="45">
+        <v>3</v>
+      </c>
+      <c r="E2" s="45">
+        <v>4</v>
+      </c>
+      <c r="F2" s="45">
+        <v>5</v>
+      </c>
+      <c r="G2" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="46">
+        <v>0.69</v>
+      </c>
+      <c r="C3" s="47">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D3" s="47">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E3" s="47">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F3" s="47">
+        <v>0.996</v>
+      </c>
+      <c r="G3" s="47">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="46">
+        <v>0.72</v>
+      </c>
+      <c r="C4" s="47">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D4" s="47">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E4" s="47">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F4" s="47">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G4" s="47">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="47">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E5" s="47">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G5" s="47">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="46">
+        <v>0.78</v>
+      </c>
+      <c r="C6" s="47">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="46">
+        <v>0.81</v>
+      </c>
+      <c r="C7" s="47">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="D7" s="47">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="E7" s="47">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F7" s="47">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G7" s="47">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="46">
+        <v>0.84</v>
+      </c>
+      <c r="C8" s="47">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="D8" s="47">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E8" s="47">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="F8" s="47">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G8" s="47">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="46">
+        <v>0.87</v>
+      </c>
+      <c r="C9" s="47">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="D9" s="47">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="E9" s="47">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="F9" s="47">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="G9" s="47">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="47">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D10" s="47">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E10" s="47">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F10" s="47">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G10" s="47">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="46">
+        <v>0.93</v>
+      </c>
+      <c r="C11" s="47">
+        <v>0.69</v>
+      </c>
+      <c r="D11" s="47">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="E11" s="47">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F11" s="47">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G11" s="47">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="46">
+        <v>0.96</v>
+      </c>
+      <c r="C12" s="47">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D12" s="47">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E12" s="47">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G12" s="47">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="C13" s="47">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D13" s="47">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="E13" s="47">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="F13" s="47">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="G13" s="47">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="45">
+        <v>2</v>
+      </c>
+      <c r="D17" s="45">
+        <v>3</v>
+      </c>
+      <c r="E17" s="45">
+        <v>4</v>
+      </c>
+      <c r="F17" s="45">
+        <v>5</v>
+      </c>
+      <c r="G17" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="25">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="25">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="25">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="25">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="25">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="25">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="25">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="25">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="25">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="25">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="25">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="45">
+        <v>2</v>
+      </c>
+      <c r="D36" s="45">
+        <v>3</v>
+      </c>
+      <c r="E36" s="45">
+        <v>4</v>
+      </c>
+      <c r="F36" s="45">
+        <v>5</v>
+      </c>
+      <c r="G36" s="45">
+        <v>6</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="46">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>26</v>
+      </c>
+      <c r="G37">
+        <v>26</v>
+      </c>
+      <c r="H37" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>26</v>
+      </c>
+      <c r="G38">
+        <v>26</v>
+      </c>
+      <c r="H38" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>26</v>
+      </c>
+      <c r="F39">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>29</v>
+      </c>
+      <c r="H39" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>28</v>
+      </c>
+      <c r="E40">
+        <v>29</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>31</v>
+      </c>
+      <c r="H40" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="C41">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>32</v>
+      </c>
+      <c r="E41">
+        <v>32</v>
+      </c>
+      <c r="F41">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>33</v>
+      </c>
+      <c r="H41" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="C42">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>37</v>
+      </c>
+      <c r="E42">
+        <v>38</v>
+      </c>
+      <c r="F42">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>38</v>
+      </c>
+      <c r="H42" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>45</v>
+      </c>
+      <c r="F43">
+        <v>46</v>
+      </c>
+      <c r="G43">
+        <v>45</v>
+      </c>
+      <c r="H43" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="C44">
+        <v>55</v>
+      </c>
+      <c r="D44">
+        <v>56</v>
+      </c>
+      <c r="E44">
+        <v>56</v>
+      </c>
+      <c r="F44">
+        <v>58</v>
+      </c>
+      <c r="G44">
+        <v>57</v>
+      </c>
+      <c r="H44" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="C45">
+        <v>80</v>
+      </c>
+      <c r="D45">
+        <v>81</v>
+      </c>
+      <c r="E45">
+        <v>79</v>
+      </c>
+      <c r="F45">
+        <v>81</v>
+      </c>
+      <c r="G45">
+        <v>81</v>
+      </c>
+      <c r="H45" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="46">
+        <v>0.85</v>
+      </c>
+      <c r="C46">
+        <v>109</v>
+      </c>
+      <c r="D46">
+        <v>106</v>
+      </c>
+      <c r="E46">
+        <v>103</v>
+      </c>
+      <c r="F46">
+        <v>107</v>
+      </c>
+      <c r="G46">
+        <v>107</v>
+      </c>
+      <c r="H46" s="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="C47">
+        <v>196</v>
+      </c>
+      <c r="D47">
+        <v>154</v>
+      </c>
+      <c r="E47">
+        <v>138</v>
+      </c>
+      <c r="F47">
+        <v>142</v>
+      </c>
+      <c r="G47">
+        <v>143</v>
+      </c>
+      <c r="H47" s="20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="C48">
+        <v>228</v>
+      </c>
+      <c r="D48">
+        <v>173</v>
+      </c>
+      <c r="E48">
+        <v>155</v>
+      </c>
+      <c r="F48">
+        <v>157</v>
+      </c>
+      <c r="G48">
+        <v>159</v>
+      </c>
+      <c r="H48" s="20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="46">
+        <v>0.92</v>
+      </c>
+      <c r="C49">
+        <v>276</v>
+      </c>
+      <c r="D49">
+        <v>200</v>
+      </c>
+      <c r="E49">
+        <v>178</v>
+      </c>
+      <c r="F49">
+        <v>181</v>
+      </c>
+      <c r="G49">
+        <v>181</v>
+      </c>
+      <c r="H49" s="20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="46">
+        <v>0.93</v>
+      </c>
+      <c r="C50">
+        <v>340</v>
+      </c>
+      <c r="D50">
+        <v>235</v>
+      </c>
+      <c r="E50">
+        <v>207</v>
+      </c>
+      <c r="F50">
+        <v>211</v>
+      </c>
+      <c r="G50">
+        <v>211</v>
+      </c>
+      <c r="H50" s="20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="46">
+        <v>0.94</v>
+      </c>
+      <c r="C51">
+        <v>447</v>
+      </c>
+      <c r="D51">
+        <v>284</v>
+      </c>
+      <c r="E51">
+        <v>250</v>
+      </c>
+      <c r="F51">
+        <v>253</v>
+      </c>
+      <c r="G51">
+        <v>253</v>
+      </c>
+      <c r="H51" s="20">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="46">
+        <v>0.95</v>
+      </c>
+      <c r="C52">
+        <v>647</v>
+      </c>
+      <c r="D52">
+        <v>359</v>
+      </c>
+      <c r="E52">
+        <v>311</v>
+      </c>
+      <c r="F52">
+        <v>314</v>
+      </c>
+      <c r="G52">
+        <v>316</v>
+      </c>
+      <c r="H52" s="20">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="46">
+        <v>0.96</v>
+      </c>
+      <c r="C53">
+        <v>1143</v>
+      </c>
+      <c r="D53">
+        <v>477</v>
+      </c>
+      <c r="E53">
+        <v>411</v>
+      </c>
+      <c r="F53">
+        <v>419</v>
+      </c>
+      <c r="G53">
+        <v>420</v>
+      </c>
+      <c r="H53" s="20">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="C54">
+        <v>2530</v>
+      </c>
+      <c r="D54">
+        <v>711</v>
+      </c>
+      <c r="E54">
+        <v>596</v>
+      </c>
+      <c r="F54">
+        <v>609</v>
+      </c>
+      <c r="G54">
+        <v>617</v>
+      </c>
+      <c r="H54" s="20">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="D55">
+        <v>1363</v>
+      </c>
+      <c r="E55">
+        <v>1065</v>
+      </c>
+      <c r="F55">
+        <v>1082</v>
+      </c>
+      <c r="G55">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="D56">
+        <v>18424</v>
+      </c>
+      <c r="E56">
+        <v>37990</v>
+      </c>
+      <c r="F56">
+        <v>56723</v>
+      </c>
+      <c r="G56">
+        <v>56764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/experiments_data.xlsx
+++ b/experiments_data.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Blocked" sheetId="1" r:id="rId1"/>
     <sheet name="CBG" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="144">
   <si>
     <t>L_max/Cuckoo</t>
   </si>
@@ -394,6 +394,60 @@
   <si>
     <t>B(2,4)</t>
   </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Set_SoA</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Set_AoS</t>
+  </si>
+  <si>
+    <t>Set_AoB</t>
+  </si>
+  <si>
+    <t>bytell_hash_set</t>
+  </si>
+  <si>
+    <t>flat_hash_set</t>
+  </si>
+  <si>
+    <t>unordered_set</t>
+  </si>
+  <si>
+    <t>2^3</t>
+  </si>
+  <si>
+    <t>2^6</t>
+  </si>
+  <si>
+    <t>2^9</t>
+  </si>
+  <si>
+    <t>2^12</t>
+  </si>
+  <si>
+    <t>2^15</t>
+  </si>
+  <si>
+    <t>2^18</t>
+  </si>
+  <si>
+    <t>2^21</t>
+  </si>
+  <si>
+    <t>2^24</t>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -655,6 +709,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,11 +1433,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1351246384"/>
-        <c:axId val="-1351237136"/>
+        <c:axId val="-488544656"/>
+        <c:axId val="-488539760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1351246384"/>
+        <c:axId val="-488544656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1351237136"/>
+        <c:crossAx val="-488539760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1351237136"/>
+        <c:axId val="-488539760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1608,7 +1664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1351246384"/>
+        <c:crossAx val="-488544656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1630,6 +1686,1540 @@
           <c:y val="0.49673483522892969"/>
           <c:w val="0.25838888888888889"/>
           <c:h val="0.26041994750656167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Positive</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42382633420822396"/>
+          <c:y val="9.2592592592592587E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.90425218722659673"/>
+          <c:h val="0.8463735783027122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bytell_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$M$62:$M$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$G$62:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$J$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$J$62:$J$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_SoA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$D$62:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$P$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>flat_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$P$62:$P$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-205946752"/>
+        <c:axId val="-205943488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-205946752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-205943488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-205943488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-205946752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17238867016622919"/>
+          <c:y val="7.5808544765237684E-2"/>
+          <c:w val="0.2435977690288714"/>
+          <c:h val="0.46875328083989504"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Negative</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4210485564304462"/>
+          <c:y val="5.0925925925925923E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.90425218722659673"/>
+          <c:h val="0.8463735783027122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_SoA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$E$62:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$P$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>flat_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$Q$62:$Q$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bytell_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$N$62:$N$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$H$62:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$J$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$K$62:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-205940768"/>
+        <c:axId val="-205941312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-205940768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-205941312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-205941312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-205940768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17238867016622919"/>
+          <c:y val="7.5808544765237684E-2"/>
+          <c:w val="0.2435977690288714"/>
+          <c:h val="0.46875328083989504"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2085,11 +3675,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1351243664"/>
-        <c:axId val="-1351236592"/>
+        <c:axId val="-488349216"/>
+        <c:axId val="-488356288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1351243664"/>
+        <c:axId val="-488349216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,7 +3785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1351236592"/>
+        <c:crossAx val="-488356288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2203,7 +3793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1351236592"/>
+        <c:axId val="-488356288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,7 +3844,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2315,7 +3904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1351243664"/>
+        <c:crossAx val="-488349216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2879,11 +4468,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1351409584"/>
-        <c:axId val="-1351409040"/>
+        <c:axId val="-212775248"/>
+        <c:axId val="-212771984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1351409584"/>
+        <c:axId val="-212775248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,7 +4579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1351409040"/>
+        <c:crossAx val="-212771984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2998,7 +4587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1351409040"/>
+        <c:axId val="-212771984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3118,7 +4707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1351409584"/>
+        <c:crossAx val="-212775248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3672,11 +5261,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1174099392"/>
-        <c:axId val="-1174100480"/>
+        <c:axId val="-212774160"/>
+        <c:axId val="-212770896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1174099392"/>
+        <c:axId val="-212774160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,7 +5371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1174100480"/>
+        <c:crossAx val="-212770896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3791,7 +5380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1174100480"/>
+        <c:axId val="-212770896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3842,7 +5431,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3903,7 +5491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1174099392"/>
+        <c:crossAx val="-212774160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4646,11 +6234,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1174103744"/>
-        <c:axId val="-1174103200"/>
+        <c:axId val="-212773072"/>
+        <c:axId val="-212777968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1174103744"/>
+        <c:axId val="-212773072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4760,7 +6348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1174103200"/>
+        <c:crossAx val="-212777968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4768,7 +6356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1174103200"/>
+        <c:axId val="-212777968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -4815,7 +6403,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4876,7 +6463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1174103744"/>
+        <c:crossAx val="-212773072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5999,11 +7586,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1174102112"/>
-        <c:axId val="-1174104288"/>
+        <c:axId val="-212774704"/>
+        <c:axId val="-254983984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1174102112"/>
+        <c:axId val="-212774704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6110,7 +7697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1174104288"/>
+        <c:crossAx val="-254983984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6118,7 +7705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1174104288"/>
+        <c:axId val="-254983984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -6171,7 +7758,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6232,7 +7818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1174102112"/>
+        <c:crossAx val="-212774704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6881,11 +8467,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1130749632"/>
-        <c:axId val="-1130758880"/>
+        <c:axId val="-254982896"/>
+        <c:axId val="-254986704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1130749632"/>
+        <c:axId val="-254982896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6997,7 +8583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1130758880"/>
+        <c:crossAx val="-254986704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7005,7 +8591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1130758880"/>
+        <c:axId val="-254986704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7126,7 +8712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1130749632"/>
+        <c:crossAx val="-254982896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7644,11 +9230,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1130748544"/>
-        <c:axId val="-1130761056"/>
+        <c:axId val="-254981808"/>
+        <c:axId val="-254985616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1130748544"/>
+        <c:axId val="-254981808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7760,7 +9346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1130761056"/>
+        <c:crossAx val="-254985616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7768,7 +9354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1130761056"/>
+        <c:axId val="-254985616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500"/>
@@ -7889,7 +9475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1130748544"/>
+        <c:crossAx val="-254981808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7979,7 +9565,854 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Insertion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4210485564304462"/>
+          <c:y val="1.3888888888888888E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.8615299650043744"/>
+          <c:h val="0.8463735783027122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$P$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>flat_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$O$62:$O$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_SoA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$C$62:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$F$62:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$J$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$I$62:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bytell_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$L$62:$L$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-254987792"/>
+        <c:axId val="-254981264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-254987792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-254981264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-254981264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-254987792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17238867016622919"/>
+          <c:y val="7.5808544765237684E-2"/>
+          <c:w val="0.2435977690288714"/>
+          <c:h val="0.46875328083989504"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8299,6 +10732,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8815,7 +11288,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9331,7 +11804,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9847,7 +12320,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10363,8 +12836,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10472,6 +12945,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10482,6 +12960,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -10513,6 +12996,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10866,7 +13352,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11382,8 +13868,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11491,11 +13977,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -11506,11 +13987,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -11542,9 +14018,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11898,7 +14371,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12656,6 +16677,100 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16621,10 +20736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H56"/>
+  <dimension ref="A2:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:F54"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62:Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17504,7 +21619,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="46">
         <v>0.92</v>
       </c>
@@ -17527,7 +21642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="46">
         <v>0.93</v>
       </c>
@@ -17550,7 +21665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="46">
         <v>0.94</v>
       </c>
@@ -17573,7 +21688,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="46">
         <v>0.95</v>
       </c>
@@ -17596,7 +21711,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="46">
         <v>0.96</v>
       </c>
@@ -17619,7 +21734,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="46">
         <v>0.97</v>
       </c>
@@ -17642,7 +21757,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="46">
         <v>0.98</v>
       </c>
@@ -17659,7 +21774,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="46">
         <v>0.99</v>
       </c>
@@ -17674,6 +21789,571 @@
       </c>
       <c r="G56">
         <v>56764</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C60" s="45"/>
+      <c r="D60" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="T60" s="45"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C61" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="J61" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K61" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="L61" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="M61" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="N61" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="O61" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="P61" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q61" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="R61" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="S61" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="T61" s="45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="37">
+        <v>32</v>
+      </c>
+      <c r="D62" s="48">
+        <v>18</v>
+      </c>
+      <c r="E62" s="49">
+        <v>18</v>
+      </c>
+      <c r="F62" s="37">
+        <v>32</v>
+      </c>
+      <c r="G62" s="48">
+        <v>18</v>
+      </c>
+      <c r="H62" s="49">
+        <v>18</v>
+      </c>
+      <c r="I62" s="37">
+        <v>34</v>
+      </c>
+      <c r="J62" s="48">
+        <v>19</v>
+      </c>
+      <c r="K62" s="49">
+        <v>19</v>
+      </c>
+      <c r="L62" s="37">
+        <v>31</v>
+      </c>
+      <c r="M62" s="48">
+        <v>16</v>
+      </c>
+      <c r="N62" s="49">
+        <v>21</v>
+      </c>
+      <c r="O62" s="37">
+        <v>43</v>
+      </c>
+      <c r="P62" s="48">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="49">
+        <v>20</v>
+      </c>
+      <c r="R62" s="37">
+        <v>55</v>
+      </c>
+      <c r="S62" s="48">
+        <v>18</v>
+      </c>
+      <c r="T62" s="49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="42">
+        <v>30</v>
+      </c>
+      <c r="D63" s="20">
+        <v>15</v>
+      </c>
+      <c r="E63" s="34">
+        <v>11</v>
+      </c>
+      <c r="F63" s="42">
+        <v>29</v>
+      </c>
+      <c r="G63" s="20">
+        <v>15</v>
+      </c>
+      <c r="H63" s="34">
+        <v>11</v>
+      </c>
+      <c r="I63" s="42">
+        <v>32</v>
+      </c>
+      <c r="J63" s="20">
+        <v>16</v>
+      </c>
+      <c r="K63" s="34">
+        <v>13</v>
+      </c>
+      <c r="L63" s="42">
+        <v>28</v>
+      </c>
+      <c r="M63" s="20">
+        <v>13</v>
+      </c>
+      <c r="N63" s="34">
+        <v>15</v>
+      </c>
+      <c r="O63" s="42">
+        <v>37</v>
+      </c>
+      <c r="P63" s="20">
+        <v>17</v>
+      </c>
+      <c r="Q63" s="34">
+        <v>16</v>
+      </c>
+      <c r="R63" s="42">
+        <v>52</v>
+      </c>
+      <c r="S63" s="20">
+        <v>17</v>
+      </c>
+      <c r="T63" s="34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="42">
+        <v>30</v>
+      </c>
+      <c r="D64" s="20">
+        <v>15</v>
+      </c>
+      <c r="E64" s="34">
+        <v>10</v>
+      </c>
+      <c r="F64" s="42">
+        <v>28</v>
+      </c>
+      <c r="G64" s="20">
+        <v>14</v>
+      </c>
+      <c r="H64" s="34">
+        <v>10</v>
+      </c>
+      <c r="I64" s="42">
+        <v>32</v>
+      </c>
+      <c r="J64" s="20">
+        <v>15</v>
+      </c>
+      <c r="K64" s="34">
+        <v>12</v>
+      </c>
+      <c r="L64" s="42">
+        <v>27</v>
+      </c>
+      <c r="M64" s="20">
+        <v>12</v>
+      </c>
+      <c r="N64" s="34">
+        <v>14</v>
+      </c>
+      <c r="O64" s="42">
+        <v>68</v>
+      </c>
+      <c r="P64" s="20">
+        <v>16</v>
+      </c>
+      <c r="Q64" s="34">
+        <v>15</v>
+      </c>
+      <c r="R64" s="42">
+        <v>61</v>
+      </c>
+      <c r="S64" s="20">
+        <v>16</v>
+      </c>
+      <c r="T64" s="34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="42">
+        <v>29</v>
+      </c>
+      <c r="D65" s="20">
+        <v>13</v>
+      </c>
+      <c r="E65" s="34">
+        <v>10</v>
+      </c>
+      <c r="F65" s="42">
+        <v>28</v>
+      </c>
+      <c r="G65" s="20">
+        <v>14</v>
+      </c>
+      <c r="H65" s="34">
+        <v>10</v>
+      </c>
+      <c r="I65" s="42">
+        <v>32</v>
+      </c>
+      <c r="J65" s="20">
+        <v>15</v>
+      </c>
+      <c r="K65" s="34">
+        <v>12</v>
+      </c>
+      <c r="L65" s="42">
+        <v>28</v>
+      </c>
+      <c r="M65" s="20">
+        <v>13</v>
+      </c>
+      <c r="N65" s="34">
+        <v>15</v>
+      </c>
+      <c r="O65" s="42">
+        <v>69</v>
+      </c>
+      <c r="P65" s="20">
+        <v>16</v>
+      </c>
+      <c r="Q65" s="34">
+        <v>15</v>
+      </c>
+      <c r="R65" s="42">
+        <v>68</v>
+      </c>
+      <c r="S65" s="20">
+        <v>22</v>
+      </c>
+      <c r="T65" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="42">
+        <v>30</v>
+      </c>
+      <c r="D66" s="20">
+        <v>14</v>
+      </c>
+      <c r="E66" s="34">
+        <v>10</v>
+      </c>
+      <c r="F66" s="42">
+        <v>30</v>
+      </c>
+      <c r="G66" s="20">
+        <v>15</v>
+      </c>
+      <c r="H66" s="34">
+        <v>11</v>
+      </c>
+      <c r="I66" s="42">
+        <v>34</v>
+      </c>
+      <c r="J66" s="20">
+        <v>16</v>
+      </c>
+      <c r="K66" s="34">
+        <v>13</v>
+      </c>
+      <c r="L66" s="42">
+        <v>30</v>
+      </c>
+      <c r="M66" s="20">
+        <v>14</v>
+      </c>
+      <c r="N66" s="34">
+        <v>15</v>
+      </c>
+      <c r="O66" s="42">
+        <v>67</v>
+      </c>
+      <c r="P66" s="20">
+        <v>17</v>
+      </c>
+      <c r="Q66" s="34">
+        <v>15</v>
+      </c>
+      <c r="R66" s="42">
+        <v>82</v>
+      </c>
+      <c r="S66" s="20">
+        <v>28</v>
+      </c>
+      <c r="T66" s="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="42">
+        <v>35</v>
+      </c>
+      <c r="D67" s="20">
+        <v>17</v>
+      </c>
+      <c r="E67" s="34">
+        <v>12</v>
+      </c>
+      <c r="F67" s="42">
+        <v>36</v>
+      </c>
+      <c r="G67" s="20">
+        <v>18</v>
+      </c>
+      <c r="H67" s="34">
+        <v>13</v>
+      </c>
+      <c r="I67" s="42">
+        <v>42</v>
+      </c>
+      <c r="J67" s="20">
+        <v>19</v>
+      </c>
+      <c r="K67" s="34">
+        <v>14</v>
+      </c>
+      <c r="L67" s="42">
+        <v>35</v>
+      </c>
+      <c r="M67" s="20">
+        <v>17</v>
+      </c>
+      <c r="N67" s="34">
+        <v>18</v>
+      </c>
+      <c r="O67" s="42">
+        <v>74</v>
+      </c>
+      <c r="P67" s="20">
+        <v>24</v>
+      </c>
+      <c r="Q67" s="34">
+        <v>16</v>
+      </c>
+      <c r="R67" s="42">
+        <v>103</v>
+      </c>
+      <c r="S67" s="20">
+        <v>42</v>
+      </c>
+      <c r="T67" s="34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="42">
+        <v>63</v>
+      </c>
+      <c r="D68" s="20">
+        <v>35</v>
+      </c>
+      <c r="E68" s="34">
+        <v>18</v>
+      </c>
+      <c r="F68" s="42">
+        <v>82</v>
+      </c>
+      <c r="G68" s="20">
+        <v>34</v>
+      </c>
+      <c r="H68" s="34">
+        <v>33</v>
+      </c>
+      <c r="I68" s="42">
+        <v>95</v>
+      </c>
+      <c r="J68" s="20">
+        <v>43</v>
+      </c>
+      <c r="K68" s="34">
+        <v>38</v>
+      </c>
+      <c r="L68" s="42">
+        <v>97</v>
+      </c>
+      <c r="M68" s="20">
+        <v>34</v>
+      </c>
+      <c r="N68" s="34">
+        <v>36</v>
+      </c>
+      <c r="O68" s="42">
+        <v>94</v>
+      </c>
+      <c r="P68" s="20">
+        <v>52</v>
+      </c>
+      <c r="Q68" s="34">
+        <v>20</v>
+      </c>
+      <c r="R68" s="42">
+        <v>231</v>
+      </c>
+      <c r="S68" s="20">
+        <v>81</v>
+      </c>
+      <c r="T68" s="34">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="43">
+        <v>105</v>
+      </c>
+      <c r="D69" s="21">
+        <v>46</v>
+      </c>
+      <c r="E69" s="35">
+        <v>49</v>
+      </c>
+      <c r="F69" s="43">
+        <v>99</v>
+      </c>
+      <c r="G69" s="21">
+        <v>40</v>
+      </c>
+      <c r="H69" s="35">
+        <v>40</v>
+      </c>
+      <c r="I69" s="43">
+        <v>115</v>
+      </c>
+      <c r="J69" s="21">
+        <v>51</v>
+      </c>
+      <c r="K69" s="35">
+        <v>45</v>
+      </c>
+      <c r="L69" s="43">
+        <v>96</v>
+      </c>
+      <c r="M69" s="21">
+        <v>43</v>
+      </c>
+      <c r="N69" s="35">
+        <v>42</v>
+      </c>
+      <c r="O69" s="43">
+        <v>132</v>
+      </c>
+      <c r="P69" s="21">
+        <v>80</v>
+      </c>
+      <c r="Q69" s="35">
+        <v>43</v>
+      </c>
+      <c r="R69" s="43">
+        <v>295</v>
+      </c>
+      <c r="S69" s="21">
+        <v>92</v>
+      </c>
+      <c r="T69" s="35">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/experiments_data.xlsx
+++ b/experiments_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="148">
   <si>
     <t>L_max/Cuckoo</t>
   </si>
@@ -448,6 +448,18 @@
   <si>
     <t>2^24</t>
   </si>
+  <si>
+    <t>50% load_factor</t>
+  </si>
+  <si>
+    <t>99% load_factor</t>
+  </si>
+  <si>
+    <t>2^27</t>
+  </si>
+  <si>
+    <t>85% load_factor</t>
+  </si>
 </sst>
 </file>
 
@@ -660,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -711,6 +723,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1433,11 +1446,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-488544656"/>
-        <c:axId val="-488539760"/>
+        <c:axId val="-1060386912"/>
+        <c:axId val="-1060385824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-488544656"/>
+        <c:axId val="-1060386912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-488539760"/>
+        <c:crossAx val="-1060385824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,7 +1565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-488539760"/>
+        <c:axId val="-1060385824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1664,7 +1677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-488544656"/>
+        <c:crossAx val="-1060386912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1799,7 +1812,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.42382633420822396"/>
-          <c:y val="9.2592592592592587E-3"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1848,8 +1861,107 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$G$62:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="9"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>CBG!$M$60</c:f>
@@ -1875,9 +1987,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:f>CBG!$B$62:$B$70</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2^3</c:v>
                 </c:pt>
@@ -1901,16 +2013,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CBG!$M$62:$M$69</c:f>
+              <c:f>CBG!$M$62:$M$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -1933,195 +2048,10 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CBG!$G$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Set_AoS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2^21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2^24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CBG!$G$62:$G$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CBG!$J$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Set_AoB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2^21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2^24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CBG!$J$62:$J$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51</c:v>
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,7 +2060,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>CBG!$D$60</c:f>
@@ -2156,9 +2086,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:f>CBG!$B$62:$B$70</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2^3</c:v>
                 </c:pt>
@@ -2182,39 +2112,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CBG!$D$62:$D$69</c:f>
+              <c:f>CBG!$D$62:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,7 +2159,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>CBG!$P$60</c:f>
@@ -2251,9 +2187,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:f>CBG!$B$62:$B$70</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2^3</c:v>
                 </c:pt>
@@ -2277,39 +2213,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CBG!$P$62:$P$69</c:f>
+              <c:f>CBG!$P$62:$P$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,11 +2267,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-205946752"/>
-        <c:axId val="-205943488"/>
+        <c:axId val="-788763744"/>
+        <c:axId val="-788771360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-205946752"/>
+        <c:axId val="-788763744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +2314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-205943488"/>
+        <c:crossAx val="-788771360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2380,9 +2322,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-205943488"/>
+        <c:axId val="-788771360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2431,7 +2374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-205946752"/>
+        <c:crossAx val="-788763744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2449,10 +2392,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17238867016622919"/>
+          <c:x val="0.10572200349956255"/>
           <c:y val="7.5808544765237684E-2"/>
           <c:w val="0.2435977690288714"/>
-          <c:h val="0.46875328083989504"/>
+          <c:h val="0.35301254009915423"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2565,8 +2508,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.4210485564304462"/>
-          <c:y val="5.0925925925925923E-2"/>
+          <c:x val="0.41271522309711289"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2642,9 +2585,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:f>CBG!$B$62:$B$70</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2^3</c:v>
                 </c:pt>
@@ -2668,16 +2611,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CBG!$E$62:$E$69</c:f>
+              <c:f>CBG!$E$62:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -2697,10 +2643,13 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,9 +2686,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:f>CBG!$B$62:$B$70</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2^3</c:v>
                 </c:pt>
@@ -2763,39 +2712,144 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CBG!$Q$62:$Q$69</c:f>
+              <c:f>CBG!$Q$62:$Q$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$H$62:$H$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,7 +2858,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>CBG!$M$60</c:f>
@@ -2830,9 +2884,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:f>CBG!$B$62:$B$70</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2^3</c:v>
                 </c:pt>
@@ -2856,21 +2910,24 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CBG!$N$62:$N$69</c:f>
+              <c:f>CBG!$N$62:$N$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
@@ -2879,10 +2936,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>36</c:v>
@@ -2890,193 +2947,8 @@
                 <c:pt idx="7">
                   <c:v>42</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CBG!$G$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Set_AoS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2^21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2^24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CBG!$H$62:$H$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CBG!$J$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Set_AoB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2^21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2^24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CBG!$K$62:$K$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3092,11 +2964,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-205940768"/>
-        <c:axId val="-205941312"/>
+        <c:axId val="-788772992"/>
+        <c:axId val="-788766464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-205940768"/>
+        <c:axId val="-788772992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3139,7 +3011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-205941312"/>
+        <c:crossAx val="-788766464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3147,9 +3019,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-205941312"/>
+        <c:axId val="-788766464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3198,7 +3071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-205940768"/>
+        <c:crossAx val="-788772992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3216,10 +3089,2103 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17238867016622919"/>
+          <c:x val="0.11127755905511812"/>
           <c:y val="7.5808544765237684E-2"/>
           <c:w val="0.2435977690288714"/>
-          <c:h val="0.46875328083989504"/>
+          <c:h val="0.34838291046952463"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Insertion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41549300087489072"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.87886351706036747"/>
+          <c:h val="0.8463735783027122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$P$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>flat_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$O$90:$O$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bytell_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$L$90:$L$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_SoA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$C$90:$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$F$90:$F$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-788769184"/>
+        <c:axId val="-788765376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-788769184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-788765376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-788765376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-788769184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10572200349956255"/>
+          <c:y val="7.5808544765237684E-2"/>
+          <c:w val="0.2435977690288714"/>
+          <c:h val="0.36227179935841353"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Positive</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42660411198600173"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.90425218722659673"/>
+          <c:h val="0.8463735783027122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bytell_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$M$90:$M$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$G$90:$G$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_SoA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$D$90:$D$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$P$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>flat_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$P$90:$P$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-788774624"/>
+        <c:axId val="-788768096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-788774624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-788768096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-788768096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="92"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-788774624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10849978127734032"/>
+          <c:y val="8.0438174394867321E-2"/>
+          <c:w val="0.2435977690288714"/>
+          <c:h val="0.36227179935841353"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Negative</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41271522309711289"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.90425218722659673"/>
+          <c:h val="0.8463735783027122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_SoA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$E$90:$E$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$H$90:$H$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bytell_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$N$90:$N$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$P$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>flat_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$Q$90:$Q$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-788777888"/>
+        <c:axId val="-788767552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-788777888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-788767552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-788767552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="73"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-788777888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11405533683289588"/>
+          <c:y val="7.5808544765237684E-2"/>
+          <c:w val="0.2435977690288714"/>
+          <c:h val="0.37153105861767277"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3675,11 +5641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-488349216"/>
-        <c:axId val="-488356288"/>
+        <c:axId val="-1060223376"/>
+        <c:axId val="-1060219024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-488349216"/>
+        <c:axId val="-1060223376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,7 +5751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-488356288"/>
+        <c:crossAx val="-1060219024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3793,7 +5759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-488356288"/>
+        <c:axId val="-1060219024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,7 +5870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-488349216"/>
+        <c:crossAx val="-1060223376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4468,11 +6434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-212775248"/>
-        <c:axId val="-212771984"/>
+        <c:axId val="-789897616"/>
+        <c:axId val="-789890000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-212775248"/>
+        <c:axId val="-789897616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,7 +6545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212771984"/>
+        <c:crossAx val="-789890000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4587,7 +6553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-212771984"/>
+        <c:axId val="-789890000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4707,7 +6673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212775248"/>
+        <c:crossAx val="-789897616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5261,11 +7227,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-212774160"/>
-        <c:axId val="-212770896"/>
+        <c:axId val="-789887824"/>
+        <c:axId val="-789899792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-212774160"/>
+        <c:axId val="-789887824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5371,7 +7337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212770896"/>
+        <c:crossAx val="-789899792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5380,7 +7346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-212770896"/>
+        <c:axId val="-789899792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5491,7 +7457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212774160"/>
+        <c:crossAx val="-789887824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6234,11 +8200,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-212773072"/>
-        <c:axId val="-212777968"/>
+        <c:axId val="-789898160"/>
+        <c:axId val="-789899248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-212773072"/>
+        <c:axId val="-789898160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6348,7 +8314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212777968"/>
+        <c:crossAx val="-789899248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6356,7 +8322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-212777968"/>
+        <c:axId val="-789899248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -6463,7 +8429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212773072"/>
+        <c:crossAx val="-789898160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7586,11 +9552,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-212774704"/>
-        <c:axId val="-254983984"/>
+        <c:axId val="-789888368"/>
+        <c:axId val="-789892720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-212774704"/>
+        <c:axId val="-789888368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7697,7 +9663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254983984"/>
+        <c:crossAx val="-789892720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7705,7 +9671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-254983984"/>
+        <c:axId val="-789892720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98"/>
@@ -7818,7 +9784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212774704"/>
+        <c:crossAx val="-789888368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8467,11 +10433,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-254982896"/>
-        <c:axId val="-254986704"/>
+        <c:axId val="-789895440"/>
+        <c:axId val="-789887280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-254982896"/>
+        <c:axId val="-789895440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8583,7 +10549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254986704"/>
+        <c:crossAx val="-789887280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8591,7 +10557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-254986704"/>
+        <c:axId val="-789887280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8712,7 +10678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254982896"/>
+        <c:crossAx val="-789895440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9230,11 +11196,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-254981808"/>
-        <c:axId val="-254985616"/>
+        <c:axId val="-789888912"/>
+        <c:axId val="-789897072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-254981808"/>
+        <c:axId val="-789888912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9346,7 +11312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254985616"/>
+        <c:crossAx val="-789897072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9354,7 +11320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-254985616"/>
+        <c:axId val="-789897072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500"/>
@@ -9475,7 +11441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254981808"/>
+        <c:crossAx val="-789888912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9609,8 +11575,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.4210485564304462"/>
-          <c:y val="1.3888888888888888E-2"/>
+          <c:x val="0.42382633420822396"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9651,7 +11617,7 @@
           <c:yMode val="edge"/>
           <c:x val="7.9247594050743664E-2"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.8615299650043744"/>
+          <c:w val="0.87886351706036747"/>
           <c:h val="0.8463735783027122"/>
         </c:manualLayout>
       </c:layout>
@@ -9659,8 +11625,305 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_SoA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$C$62:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set_AoS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$F$62:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CBG!$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bytell_hash_set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBG!$B$62:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CBG!$L$62:$L$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="12"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>CBG!$P$60</c:f>
@@ -9688,9 +11951,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
+              <c:f>CBG!$B$62:$B$70</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2^3</c:v>
                 </c:pt>
@@ -9714,413 +11977,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2^24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CBG!$O$62:$O$69</c:f>
+              <c:f>CBG!$O$62:$O$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CBG!$D$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Set_SoA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2^21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2^24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CBG!$C$62:$C$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CBG!$G$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Set_AoS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2^21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2^24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CBG!$F$62:$F$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CBG!$J$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Set_AoB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2^21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2^24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CBG!$I$62:$I$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>115</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CBG!$M$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>bytell_hash_set</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>CBG!$B$62:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2^21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2^24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CBG!$L$62:$L$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96</c:v>
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10136,11 +12031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-254987792"/>
-        <c:axId val="-254981264"/>
+        <c:axId val="-789895984"/>
+        <c:axId val="-789900336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-254987792"/>
+        <c:axId val="-789895984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10183,7 +12078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254981264"/>
+        <c:crossAx val="-789900336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10191,9 +12086,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-254981264"/>
+        <c:axId val="-789900336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="140"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10242,7 +12138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254987792"/>
+        <c:crossAx val="-789895984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10260,10 +12156,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17238867016622919"/>
+          <c:x val="0.13349978127734033"/>
           <c:y val="7.5808544765237684E-2"/>
           <c:w val="0.2435977690288714"/>
-          <c:h val="0.46875328083989504"/>
+          <c:h val="0.37616068824730237"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10413,6 +12309,126 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12320,6 +14336,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -16685,15 +20249,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16715,15 +20279,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16746,16 +20310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16771,6 +20335,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20736,10 +24396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T69"/>
+  <dimension ref="A2:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62:Q69"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21797,6 +25457,9 @@
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>144</v>
+      </c>
       <c r="C60" s="45"/>
       <c r="D60" s="45" t="s">
         <v>127</v>
@@ -21888,82 +25551,82 @@
       <c r="B62" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="37">
-        <v>32</v>
-      </c>
-      <c r="D62" s="48">
+      <c r="C62">
+        <v>31</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62">
         <v>18</v>
       </c>
-      <c r="E62" s="49">
-        <v>18</v>
-      </c>
       <c r="F62" s="37">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G62" s="48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H62" s="49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I62" s="37">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J62" s="48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K62" s="49">
         <v>19</v>
       </c>
       <c r="L62" s="37">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M62" s="48">
         <v>16</v>
       </c>
       <c r="N62" s="49">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O62" s="37">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="P62" s="48">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q62" s="49">
+        <v>18</v>
+      </c>
+      <c r="R62" s="37">
+        <v>60</v>
+      </c>
+      <c r="S62" s="48">
         <v>20</v>
       </c>
-      <c r="R62" s="37">
-        <v>55</v>
-      </c>
-      <c r="S62" s="48">
-        <v>18</v>
-      </c>
       <c r="T62" s="49">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="42">
-        <v>30</v>
-      </c>
-      <c r="D63" s="20">
-        <v>15</v>
-      </c>
-      <c r="E63" s="34">
+      <c r="C63">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63">
         <v>11</v>
       </c>
       <c r="F63" s="42">
         <v>29</v>
       </c>
       <c r="G63" s="20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H63" s="34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I63" s="42">
         <v>32</v>
@@ -21972,7 +25635,7 @@
         <v>16</v>
       </c>
       <c r="K63" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L63" s="42">
         <v>28</v>
@@ -21981,54 +25644,54 @@
         <v>13</v>
       </c>
       <c r="N63" s="34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O63" s="42">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="P63" s="20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q63" s="34">
+        <v>13</v>
+      </c>
+      <c r="R63" s="42">
+        <v>56</v>
+      </c>
+      <c r="S63" s="20">
+        <v>18</v>
+      </c>
+      <c r="T63" s="34">
         <v>16</v>
-      </c>
-      <c r="R63" s="42">
-        <v>52</v>
-      </c>
-      <c r="S63" s="20">
-        <v>17</v>
-      </c>
-      <c r="T63" s="34">
-        <v>15</v>
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="42">
-        <v>30</v>
-      </c>
-      <c r="D64" s="20">
-        <v>15</v>
-      </c>
-      <c r="E64" s="34">
+      <c r="C64">
+        <v>28</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="E64">
         <v>10</v>
       </c>
       <c r="F64" s="42">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G64" s="20">
+        <v>12</v>
+      </c>
+      <c r="H64" s="34">
+        <v>9</v>
+      </c>
+      <c r="I64" s="42">
+        <v>31</v>
+      </c>
+      <c r="J64" s="20">
         <v>14</v>
-      </c>
-      <c r="H64" s="34">
-        <v>10</v>
-      </c>
-      <c r="I64" s="42">
-        <v>32</v>
-      </c>
-      <c r="J64" s="20">
-        <v>15</v>
       </c>
       <c r="K64" s="34">
         <v>12</v>
@@ -22043,19 +25706,19 @@
         <v>14</v>
       </c>
       <c r="O64" s="42">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="P64" s="20">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q64" s="34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R64" s="42">
         <v>61</v>
       </c>
       <c r="S64" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T64" s="34">
         <v>14</v>
@@ -22065,26 +25728,26 @@
       <c r="B65" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="42">
-        <v>29</v>
-      </c>
-      <c r="D65" s="20">
-        <v>13</v>
-      </c>
-      <c r="E65" s="34">
+      <c r="C65">
+        <v>27</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
         <v>10</v>
       </c>
       <c r="F65" s="42">
         <v>28</v>
       </c>
       <c r="G65" s="20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H65" s="34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I65" s="42">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J65" s="20">
         <v>15</v>
@@ -22102,48 +25765,48 @@
         <v>15</v>
       </c>
       <c r="O65" s="42">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="P65" s="20">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q65" s="34">
+        <v>12</v>
+      </c>
+      <c r="R65" s="42">
+        <v>81</v>
+      </c>
+      <c r="S65" s="20">
+        <v>18</v>
+      </c>
+      <c r="T65" s="34">
         <v>15</v>
-      </c>
-      <c r="R65" s="42">
-        <v>68</v>
-      </c>
-      <c r="S65" s="20">
-        <v>22</v>
-      </c>
-      <c r="T65" s="34">
-        <v>20</v>
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="42">
-        <v>30</v>
-      </c>
-      <c r="D66" s="20">
-        <v>14</v>
-      </c>
-      <c r="E66" s="34">
+      <c r="C66">
+        <v>28</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
         <v>10</v>
       </c>
       <c r="F66" s="42">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" s="20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H66" s="34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I66" s="42">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J66" s="20">
         <v>16</v>
@@ -22158,57 +25821,57 @@
         <v>14</v>
       </c>
       <c r="N66" s="34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O66" s="42">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="P66" s="20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q66" s="34">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R66" s="42">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="S66" s="20">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T66" s="34">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="42">
+      <c r="C67">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
+      </c>
+      <c r="F67" s="42">
         <v>35</v>
       </c>
-      <c r="D67" s="20">
-        <v>17</v>
-      </c>
-      <c r="E67" s="34">
-        <v>12</v>
-      </c>
-      <c r="F67" s="42">
-        <v>36</v>
-      </c>
       <c r="G67" s="20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H67" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I67" s="42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J67" s="20">
         <v>19</v>
       </c>
       <c r="K67" s="34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L67" s="42">
         <v>35</v>
@@ -22217,60 +25880,60 @@
         <v>17</v>
       </c>
       <c r="N67" s="34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O67" s="42">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="P67" s="20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q67" s="34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R67" s="42">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="S67" s="20">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T67" s="34">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="42">
-        <v>63</v>
-      </c>
-      <c r="D68" s="20">
-        <v>35</v>
-      </c>
-      <c r="E68" s="34">
-        <v>18</v>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>37</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
       </c>
       <c r="F68" s="42">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G68" s="20">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68" s="34">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I68" s="42">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J68" s="20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68" s="34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L68" s="42">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M68" s="20">
         <v>34</v>
@@ -22279,81 +25942,950 @@
         <v>36</v>
       </c>
       <c r="O68" s="42">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="P68" s="20">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q68" s="34">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R68" s="42">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="S68" s="20">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="T68" s="34">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="43">
-        <v>105</v>
-      </c>
-      <c r="D69" s="21">
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>44</v>
+      </c>
+      <c r="E69">
+        <v>32</v>
+      </c>
+      <c r="F69" s="42">
+        <v>98</v>
+      </c>
+      <c r="G69" s="20">
+        <v>38</v>
+      </c>
+      <c r="H69" s="34">
+        <v>33</v>
+      </c>
+      <c r="I69" s="42">
+        <v>114</v>
+      </c>
+      <c r="J69" s="20">
+        <v>49</v>
+      </c>
+      <c r="K69" s="34">
         <v>46</v>
       </c>
-      <c r="E69" s="35">
+      <c r="L69" s="42">
+        <v>95</v>
+      </c>
+      <c r="M69" s="20">
+        <v>42</v>
+      </c>
+      <c r="N69" s="34">
+        <v>42</v>
+      </c>
+      <c r="O69" s="42">
+        <v>90</v>
+      </c>
+      <c r="P69" s="20">
+        <v>76</v>
+      </c>
+      <c r="Q69" s="34">
+        <v>41</v>
+      </c>
+      <c r="R69" s="42">
+        <v>369</v>
+      </c>
+      <c r="S69" s="20">
+        <v>74</v>
+      </c>
+      <c r="T69" s="34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="21">
+        <v>119</v>
+      </c>
+      <c r="D70" s="21">
+        <v>54</v>
+      </c>
+      <c r="E70" s="35">
+        <v>36</v>
+      </c>
+      <c r="F70" s="21">
+        <v>112</v>
+      </c>
+      <c r="G70" s="21">
+        <v>43</v>
+      </c>
+      <c r="H70" s="35">
+        <v>39</v>
+      </c>
+      <c r="I70" s="21">
+        <v>131</v>
+      </c>
+      <c r="J70" s="21">
+        <v>56</v>
+      </c>
+      <c r="K70" s="35">
+        <v>53</v>
+      </c>
+      <c r="L70" s="21">
+        <v>140</v>
+      </c>
+      <c r="M70" s="21">
+        <v>45</v>
+      </c>
+      <c r="N70" s="35">
+        <v>47</v>
+      </c>
+      <c r="O70" s="21">
+        <v>124</v>
+      </c>
+      <c r="P70" s="21">
+        <v>90</v>
+      </c>
+      <c r="Q70" s="35">
         <v>49</v>
       </c>
-      <c r="F69" s="43">
-        <v>99</v>
-      </c>
-      <c r="G69" s="21">
+      <c r="R70" s="21">
+        <v>477</v>
+      </c>
+      <c r="S70" s="21">
+        <v>107</v>
+      </c>
+      <c r="T70" s="35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="K88" s="45"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q88" s="45"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="T88" s="45"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C89" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F89" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G89" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H89" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="I89" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="J89" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K89" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="L89" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="M89" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="N89" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="O89" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="P89" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q89" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="R89" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="S89" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="T89" s="45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90">
+        <v>14</v>
+      </c>
+      <c r="E90">
+        <v>15</v>
+      </c>
+      <c r="F90" s="37">
+        <v>32</v>
+      </c>
+      <c r="G90" s="48">
+        <v>15</v>
+      </c>
+      <c r="H90" s="49">
+        <v>13</v>
+      </c>
+      <c r="I90" s="37">
+        <v>32</v>
+      </c>
+      <c r="J90" s="48">
+        <v>17</v>
+      </c>
+      <c r="K90" s="49">
+        <v>18</v>
+      </c>
+      <c r="L90" s="37">
+        <v>32</v>
+      </c>
+      <c r="M90" s="48">
+        <v>16</v>
+      </c>
+      <c r="N90" s="49">
+        <v>22</v>
+      </c>
+      <c r="O90" s="37">
+        <v>20</v>
+      </c>
+      <c r="P90" s="48">
+        <v>16</v>
+      </c>
+      <c r="Q90" s="49">
+        <v>16</v>
+      </c>
+      <c r="R90" s="37">
+        <v>57</v>
+      </c>
+      <c r="S90" s="48">
+        <v>24</v>
+      </c>
+      <c r="T90" s="49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91">
+        <v>36</v>
+      </c>
+      <c r="D91">
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>12</v>
+      </c>
+      <c r="F91" s="42">
+        <v>33</v>
+      </c>
+      <c r="G91" s="20">
+        <v>14</v>
+      </c>
+      <c r="H91" s="34">
+        <v>10</v>
+      </c>
+      <c r="I91" s="42">
+        <v>32</v>
+      </c>
+      <c r="J91" s="20">
+        <v>15</v>
+      </c>
+      <c r="K91" s="34">
+        <v>13</v>
+      </c>
+      <c r="L91" s="42">
+        <v>34</v>
+      </c>
+      <c r="M91" s="20">
+        <v>15</v>
+      </c>
+      <c r="N91" s="34">
+        <v>19</v>
+      </c>
+      <c r="O91" s="42">
+        <v>18</v>
+      </c>
+      <c r="P91" s="20">
+        <v>13</v>
+      </c>
+      <c r="Q91" s="34">
+        <v>18</v>
+      </c>
+      <c r="R91" s="42">
+        <v>53</v>
+      </c>
+      <c r="S91" s="20">
+        <v>21</v>
+      </c>
+      <c r="T91" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92">
+        <v>42</v>
+      </c>
+      <c r="D92">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>12</v>
+      </c>
+      <c r="F92" s="42">
+        <v>42</v>
+      </c>
+      <c r="G92" s="20">
+        <v>18</v>
+      </c>
+      <c r="H92" s="34">
+        <v>11</v>
+      </c>
+      <c r="I92" s="42">
+        <v>47</v>
+      </c>
+      <c r="J92" s="20">
+        <v>21</v>
+      </c>
+      <c r="K92" s="34">
+        <v>15</v>
+      </c>
+      <c r="L92" s="42">
+        <v>32</v>
+      </c>
+      <c r="M92" s="20">
+        <v>14</v>
+      </c>
+      <c r="N92" s="34">
+        <v>18</v>
+      </c>
+      <c r="O92" s="42">
+        <v>29</v>
+      </c>
+      <c r="P92" s="20">
+        <v>13</v>
+      </c>
+      <c r="Q92" s="34">
+        <v>20</v>
+      </c>
+      <c r="R92" s="42">
+        <v>60</v>
+      </c>
+      <c r="S92" s="20">
+        <v>21</v>
+      </c>
+      <c r="T92" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93">
+        <v>41</v>
+      </c>
+      <c r="D93">
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>12</v>
+      </c>
+      <c r="F93" s="42">
+        <v>41</v>
+      </c>
+      <c r="G93" s="20">
+        <v>18</v>
+      </c>
+      <c r="H93" s="34">
+        <v>11</v>
+      </c>
+      <c r="I93" s="42">
+        <v>47</v>
+      </c>
+      <c r="J93" s="20">
+        <v>21</v>
+      </c>
+      <c r="K93" s="34">
+        <v>14</v>
+      </c>
+      <c r="L93" s="42">
+        <v>33</v>
+      </c>
+      <c r="M93" s="20">
+        <v>15</v>
+      </c>
+      <c r="N93" s="34">
+        <v>19</v>
+      </c>
+      <c r="O93" s="42">
+        <v>27</v>
+      </c>
+      <c r="P93" s="20">
+        <v>13</v>
+      </c>
+      <c r="Q93" s="34">
+        <v>21</v>
+      </c>
+      <c r="R93" s="42">
+        <v>71</v>
+      </c>
+      <c r="S93" s="20">
+        <v>23</v>
+      </c>
+      <c r="T93" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94">
+        <v>43</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>12</v>
+      </c>
+      <c r="F94" s="42">
+        <v>43</v>
+      </c>
+      <c r="G94" s="20">
+        <v>21</v>
+      </c>
+      <c r="H94" s="34">
+        <v>12</v>
+      </c>
+      <c r="I94" s="42">
+        <v>49</v>
+      </c>
+      <c r="J94" s="20">
+        <v>23</v>
+      </c>
+      <c r="K94" s="34">
+        <v>15</v>
+      </c>
+      <c r="L94" s="42">
+        <v>36</v>
+      </c>
+      <c r="M94" s="20">
+        <v>16</v>
+      </c>
+      <c r="N94" s="34">
+        <v>20</v>
+      </c>
+      <c r="O94" s="42">
+        <v>28</v>
+      </c>
+      <c r="P94" s="20">
+        <v>14</v>
+      </c>
+      <c r="Q94" s="34">
+        <v>22</v>
+      </c>
+      <c r="R94" s="42">
+        <v>88</v>
+      </c>
+      <c r="S94" s="20">
+        <v>28</v>
+      </c>
+      <c r="T94" s="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95">
+        <v>49</v>
+      </c>
+      <c r="D95">
+        <v>24</v>
+      </c>
+      <c r="E95">
+        <v>14</v>
+      </c>
+      <c r="F95" s="42">
+        <v>50</v>
+      </c>
+      <c r="G95" s="20">
+        <v>24</v>
+      </c>
+      <c r="H95" s="34">
+        <v>14</v>
+      </c>
+      <c r="I95" s="42">
+        <v>57</v>
+      </c>
+      <c r="J95" s="20">
+        <v>28</v>
+      </c>
+      <c r="K95" s="34">
+        <v>18</v>
+      </c>
+      <c r="L95" s="42">
+        <v>42</v>
+      </c>
+      <c r="M95" s="20">
+        <v>20</v>
+      </c>
+      <c r="N95" s="34">
+        <v>23</v>
+      </c>
+      <c r="O95" s="42">
+        <v>33</v>
+      </c>
+      <c r="P95" s="20">
+        <v>19</v>
+      </c>
+      <c r="Q95" s="34">
+        <v>24</v>
+      </c>
+      <c r="R95" s="42">
+        <v>145</v>
+      </c>
+      <c r="S95" s="20">
+        <v>58</v>
+      </c>
+      <c r="T95" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B96" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96">
+        <v>88</v>
+      </c>
+      <c r="D96">
+        <v>48</v>
+      </c>
+      <c r="E96">
+        <v>18</v>
+      </c>
+      <c r="F96" s="42">
+        <v>104</v>
+      </c>
+      <c r="G96" s="20">
+        <v>43</v>
+      </c>
+      <c r="H96" s="34">
+        <v>34</v>
+      </c>
+      <c r="I96" s="42">
+        <v>118</v>
+      </c>
+      <c r="J96" s="20">
+        <v>54</v>
+      </c>
+      <c r="K96" s="34">
+        <v>46</v>
+      </c>
+      <c r="L96" s="42">
+        <v>102</v>
+      </c>
+      <c r="M96" s="20">
+        <v>39</v>
+      </c>
+      <c r="N96" s="34">
+        <v>41</v>
+      </c>
+      <c r="O96" s="42">
+        <v>47</v>
+      </c>
+      <c r="P96" s="20">
+        <v>48</v>
+      </c>
+      <c r="Q96" s="34">
+        <v>32</v>
+      </c>
+      <c r="R96" s="42">
+        <v>260</v>
+      </c>
+      <c r="S96" s="20">
+        <v>78</v>
+      </c>
+      <c r="T96" s="34">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B97" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="20">
+        <v>131</v>
+      </c>
+      <c r="D97" s="20">
+        <v>59</v>
+      </c>
+      <c r="E97" s="34">
+        <v>38</v>
+      </c>
+      <c r="F97" s="42">
+        <v>123</v>
+      </c>
+      <c r="G97" s="20">
+        <v>50</v>
+      </c>
+      <c r="H97" s="34">
+        <v>41</v>
+      </c>
+      <c r="I97" s="42">
+        <v>140</v>
+      </c>
+      <c r="J97" s="20">
+        <v>64</v>
+      </c>
+      <c r="K97" s="34">
+        <v>55</v>
+      </c>
+      <c r="L97" s="42">
+        <v>111</v>
+      </c>
+      <c r="M97" s="20">
+        <v>47</v>
+      </c>
+      <c r="N97" s="34">
+        <v>47</v>
+      </c>
+      <c r="O97" s="42">
+        <v>91</v>
+      </c>
+      <c r="P97" s="20">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="34">
+        <v>60</v>
+      </c>
+      <c r="R97" s="42">
+        <v>312</v>
+      </c>
+      <c r="S97" s="20">
+        <v>89</v>
+      </c>
+      <c r="T97" s="34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B98" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="21">
+        <v>157</v>
+      </c>
+      <c r="D98" s="21">
+        <v>73</v>
+      </c>
+      <c r="E98" s="35">
+        <v>43</v>
+      </c>
+      <c r="F98" s="21">
+        <v>140</v>
+      </c>
+      <c r="G98" s="21">
+        <v>55</v>
+      </c>
+      <c r="H98" s="35">
+        <v>46</v>
+      </c>
+      <c r="I98" s="21">
+        <v>161</v>
+      </c>
+      <c r="J98" s="21">
+        <v>72</v>
+      </c>
+      <c r="K98" s="35">
+        <v>62</v>
+      </c>
+      <c r="L98" s="21">
+        <v>151</v>
+      </c>
+      <c r="M98" s="21">
+        <v>52</v>
+      </c>
+      <c r="N98" s="35">
+        <v>53</v>
+      </c>
+      <c r="O98" s="21">
+        <v>122</v>
+      </c>
+      <c r="P98" s="21">
+        <v>92</v>
+      </c>
+      <c r="Q98" s="35">
+        <v>73</v>
+      </c>
+      <c r="R98" s="21">
+        <v>417</v>
+      </c>
+      <c r="S98" s="21">
+        <v>130</v>
+      </c>
+      <c r="T98" s="35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115">
+        <v>35</v>
+      </c>
+      <c r="D115">
+        <v>23</v>
+      </c>
+      <c r="E115">
+        <v>19</v>
+      </c>
+      <c r="G115">
+        <v>36</v>
+      </c>
+      <c r="H115">
+        <v>25</v>
+      </c>
+      <c r="I115">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>43</v>
+      </c>
+      <c r="D116">
+        <v>22</v>
+      </c>
+      <c r="E116">
+        <v>14</v>
+      </c>
+      <c r="G116">
+        <v>42</v>
+      </c>
+      <c r="H116">
+        <v>22</v>
+      </c>
+      <c r="I116">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>74</v>
+      </c>
+      <c r="D117">
+        <v>24</v>
+      </c>
+      <c r="E117">
+        <v>15</v>
+      </c>
+      <c r="G117">
+        <v>74</v>
+      </c>
+      <c r="H117">
+        <v>24</v>
+      </c>
+      <c r="I117">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>77</v>
+      </c>
+      <c r="D118">
+        <v>24</v>
+      </c>
+      <c r="E118">
+        <v>14</v>
+      </c>
+      <c r="G118">
+        <v>77</v>
+      </c>
+      <c r="H118">
+        <v>25</v>
+      </c>
+      <c r="I118">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>78</v>
+      </c>
+      <c r="D119">
+        <v>28</v>
+      </c>
+      <c r="E119">
+        <v>15</v>
+      </c>
+      <c r="G119">
+        <v>80</v>
+      </c>
+      <c r="H119">
+        <v>28</v>
+      </c>
+      <c r="I119">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>88</v>
+      </c>
+      <c r="D120">
+        <v>32</v>
+      </c>
+      <c r="E120">
+        <v>17</v>
+      </c>
+      <c r="G120">
+        <v>90</v>
+      </c>
+      <c r="H120">
+        <v>32</v>
+      </c>
+      <c r="I120">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>122</v>
+      </c>
+      <c r="D121">
+        <v>62</v>
+      </c>
+      <c r="E121">
+        <v>21</v>
+      </c>
+      <c r="G121">
+        <v>171</v>
+      </c>
+      <c r="H121">
+        <v>57</v>
+      </c>
+      <c r="I121">
         <v>40</v>
       </c>
-      <c r="H69" s="35">
-        <v>40</v>
-      </c>
-      <c r="I69" s="43">
-        <v>115</v>
-      </c>
-      <c r="J69" s="21">
-        <v>51</v>
-      </c>
-      <c r="K69" s="35">
-        <v>45</v>
-      </c>
-      <c r="L69" s="43">
-        <v>96</v>
-      </c>
-      <c r="M69" s="21">
-        <v>43</v>
-      </c>
-      <c r="N69" s="35">
-        <v>42</v>
-      </c>
-      <c r="O69" s="43">
-        <v>132</v>
-      </c>
-      <c r="P69" s="21">
-        <v>80</v>
-      </c>
-      <c r="Q69" s="35">
-        <v>43</v>
-      </c>
-      <c r="R69" s="43">
-        <v>295</v>
-      </c>
-      <c r="S69" s="21">
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>195</v>
+      </c>
+      <c r="D122">
+        <v>76</v>
+      </c>
+      <c r="E122">
+        <v>48</v>
+      </c>
+      <c r="G122">
+        <v>202</v>
+      </c>
+      <c r="H122">
+        <v>65</v>
+      </c>
+      <c r="I122">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>234</v>
+      </c>
+      <c r="D123">
         <v>92</v>
       </c>
-      <c r="T69" s="35">
+      <c r="E123">
+        <v>55</v>
+      </c>
+      <c r="G123">
+        <v>235</v>
+      </c>
+      <c r="H123">
         <v>73</v>
+      </c>
+      <c r="I123">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
